--- a/Documents/Scrum/BurnDown_chart.xlsx
+++ b/Documents/Scrum/BurnDown_chart.xlsx
@@ -5,18 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9287DFBB-2815-DC48-8A4C-A5AB08697928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA0C56D-B2CA-9942-A0FA-FF2B4373C5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10240" yWindow="0" windowWidth="18560" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sprint 1" sheetId="5" r:id="rId1"/>
+    <sheet name="Sprint 1 - Commun" sheetId="5" r:id="rId1"/>
+    <sheet name="Sprint 1 - Angela" sheetId="7" r:id="rId2"/>
+    <sheet name="Sprint 1 - Aurelie" sheetId="8" r:id="rId3"/>
+    <sheet name="Sprint 1 - Coralie" sheetId="9" r:id="rId4"/>
+    <sheet name="Sprint 1 - Constantin" sheetId="10" r:id="rId5"/>
+    <sheet name="Sprint 2" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="4">
   <si>
     <t>Jour de Sprint</t>
   </si>
@@ -62,8 +67,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="175" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -122,7 +127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
@@ -136,7 +141,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -258,7 +263,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 1'!$C$1</c:f>
+              <c:f>'Sprint 1 - Commun'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -281,7 +286,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 1'!$B$2:$B$32</c:f>
+              <c:f>'Sprint 1 - Commun'!$B$2:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
@@ -380,7 +385,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1'!$C$2:$C$32</c:f>
+              <c:f>'Sprint 1 - Commun'!$C$2:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="31"/>
@@ -489,7 +494,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 1'!$D$1</c:f>
+              <c:f>'Sprint 1 - Commun'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -512,7 +517,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 1'!$B$2:$B$32</c:f>
+              <c:f>'Sprint 1 - Commun'!$B$2:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="31"/>
@@ -611,7 +616,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 1'!$D$2:$D$32</c:f>
+              <c:f>'Sprint 1 - Commun'!$D$2:$D$32</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="31"/>
@@ -712,6 +717,3738 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-0609-8346-9728-EC2361058827}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="628435887"/>
+        <c:axId val="628353711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="628435887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628353711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="628353711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628435887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="2000" b="1"/>
+              <a:t>Sprint 1 - Angela</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 1 - Angela'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Courbe idéal </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 1 - Angela'!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="1">
+                  <c:v>44459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44460</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44465</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44466</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44467</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44468</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44471</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44472</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44473</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44475</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44476</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44477</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44478</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44479</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44482</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44485</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44486</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1 - Angela'!$C$2:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="1">
+                  <c:v>1.3809523809523809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2380952380952379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1904761904761902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1428571428571426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0952380952380949</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0476190476190472</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99999999999999956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95238095238095188</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90476190476190421</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85714285714285654</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.80952380952380887</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7619047619047612</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.71428571428571352</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66666666666666585</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61904761904761818</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.57142857142857051</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.52380952380952284</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47619047619047522</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4285714285714276</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38095238095237999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.33333333333333237</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.28571428571428475</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23809523809523714</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.19047619047618952</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.14285714285714191</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.5238095238094289E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.7619047619046673E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.4368957093138306E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DDB6-9249-B38B-78D4C202F1C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 1 - Angela'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Courbe Réelle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 1 - Angela'!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="1">
+                  <c:v>44459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44460</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44465</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44466</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44467</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44468</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44471</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44472</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44473</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44475</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44476</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44477</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44478</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44479</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44482</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44485</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44486</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1 - Angela'!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="1">
+                  <c:v>1.3323412698412698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3323412698412698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3323412698412698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2802579365079365</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2524801587301588</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2455357142857144</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2455357142857144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2038690476190477</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1622023809523809</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1135912698412698</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1135912698412698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0684523809523809</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0684523809523809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0684523809523809</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0684523809523809</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0684523809523809</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0684523809523809</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0684523809523809</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0406746031746033</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0406746031746033</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.01984126984127</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.88442460317460336</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.88442460317460336</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.82192460317460336</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.78025793650793673</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.64831349206349231</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.54414682539682568</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.54414682539682568</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.4885912698412701</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.44692460317460342</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DDB6-9249-B38B-78D4C202F1C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="628435887"/>
+        <c:axId val="628353711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="628435887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628353711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="628353711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628435887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="2000" b="1"/>
+              <a:t>Sprint 1 - Aurelie</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 1 - Aurelie'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Courbe idéal </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 1 - Aurelie'!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="1">
+                  <c:v>44459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44460</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44465</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44466</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44467</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44468</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44471</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44472</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44473</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44475</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44476</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44477</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44478</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44479</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44482</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44485</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44486</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1 - Aurelie'!$C$2:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="1">
+                  <c:v>1.3809523809523809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2380952380952379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1904761904761902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1428571428571426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0952380952380949</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0476190476190472</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99999999999999956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95238095238095188</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90476190476190421</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85714285714285654</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.80952380952380887</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7619047619047612</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.71428571428571352</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66666666666666585</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61904761904761818</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.57142857142857051</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.52380952380952284</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47619047619047522</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4285714285714276</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38095238095237999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.33333333333333237</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.28571428571428475</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23809523809523714</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.19047619047618952</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.14285714285714191</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.5238095238094289E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.7619047619046673E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.4368957093138306E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4943-F045-A9E6-5F17BA28A002}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 1 - Aurelie'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Courbe Réelle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 1 - Aurelie'!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="1">
+                  <c:v>44459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44460</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44465</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44466</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44467</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44468</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44471</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44472</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44473</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44475</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44476</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44477</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44478</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44479</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44482</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44485</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44486</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1 - Aurelie'!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="1">
+                  <c:v>1.3392857142857142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3323412698412698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3253968253968254</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3253968253968254</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3115079365079365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3115079365079365</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2698412698412698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2698412698412698</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2698412698412698</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1448412698412698</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1448412698412698</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0997023809523809</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0997023809523809</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0580357142857142</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0580357142857142</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0580357142857142</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.0580357142857142</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.0580357142857142</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0198412698412698</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0198412698412698</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.87748015873015861</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.79414682539682524</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.79414682539682524</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.79414682539682524</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.70039682539682524</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.70039682539682524</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.70039682539682524</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.70039682539682524</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.65873015873015861</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.61706349206349198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4943-F045-A9E6-5F17BA28A002}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="628435887"/>
+        <c:axId val="628353711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="628435887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628353711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="628353711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628435887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="2000" b="1"/>
+              <a:t>Sprint 1 - Coralie</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 1 - Coralie'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Courbe idéal </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 1 - Coralie'!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="1">
+                  <c:v>44459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44460</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44465</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44466</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44467</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44468</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44471</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44472</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44473</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44475</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44476</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44477</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44478</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44479</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44482</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44485</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44486</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1 - Coralie'!$C$2:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="1">
+                  <c:v>1.3809523809523809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2380952380952379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1904761904761902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1428571428571426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0952380952380949</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0476190476190472</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99999999999999956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95238095238095188</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90476190476190421</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85714285714285654</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.80952380952380887</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7619047619047612</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.71428571428571352</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66666666666666585</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61904761904761818</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.57142857142857051</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.52380952380952284</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47619047619047522</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4285714285714276</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38095238095237999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.33333333333333237</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.28571428571428475</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23809523809523714</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.19047619047618952</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.14285714285714191</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.5238095238094289E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.7619047619046673E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.4368957093138306E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4CCA-204C-B40D-F094DC2E1CB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 1 - Coralie'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Courbe Réelle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 1 - Coralie'!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="1">
+                  <c:v>44459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44460</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44465</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44466</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44467</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44468</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44471</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44472</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44473</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44475</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44476</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44477</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44478</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44479</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44482</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44485</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44486</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1 - Coralie'!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="1">
+                  <c:v>1.3323412698412698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3323412698412698</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3288690476190474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3288690476190474</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3288690476190474</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3288690476190474</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2003968253968251</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1587301587301584</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1170634920634916</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0753968253968249</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0753968253968249</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0094246031746026</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0094246031746026</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.92261904761904701</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.92261904761904701</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.92261904761904701</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.92261904761904701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.92261904761904701</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.87053571428571364</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.87053571428571364</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.87053571428571364</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.74553571428571364</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.74553571428571364</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.74553571428571364</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.6066468253968248</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.55456349206349143</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.38095238095238032</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.35317460317460253</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.28025793650793585</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.23859126984126919</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4CCA-204C-B40D-F094DC2E1CB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="628435887"/>
+        <c:axId val="628353711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="628435887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628353711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="628353711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628435887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="2000" b="1"/>
+              <a:t>Sprint 1 - Constantin</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 1 - Constantin'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Courbe idéal </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 1 - Constantin'!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="1">
+                  <c:v>44459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44460</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44465</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44466</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44467</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44468</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44471</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44472</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44473</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44475</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44476</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44477</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44478</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44479</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44482</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44485</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44486</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1 - Constantin'!$C$2:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="1">
+                  <c:v>1.3809523809523809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2857142857142856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2380952380952379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1904761904761902</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1428571428571426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0952380952380949</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0476190476190472</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99999999999999956</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.95238095238095188</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.90476190476190421</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85714285714285654</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.80952380952380887</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.7619047619047612</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.71428571428571352</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66666666666666585</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.61904761904761818</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.57142857142857051</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.52380952380952284</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.47619047619047522</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.4285714285714276</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.38095238095237999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.33333333333333237</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.28571428571428475</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.23809523809523714</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.19047619047618952</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.14285714285714191</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.5238095238094289E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.7619047619046673E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-9.4368957093138306E-16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0F74-3943-B2C6-7B26057CD1D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 1 - Constantin'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Courbe Réelle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 1 - Constantin'!$B$2:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="1">
+                  <c:v>44459</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44460</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44462</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44463</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44465</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44466</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44467</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44468</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44469</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44470</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44471</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44472</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44473</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44474</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44475</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44476</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44477</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44478</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44479</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44480</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44481</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44482</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44484</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44485</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44486</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44487</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 1 - Constantin'!$D$2:$D$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="1">
+                  <c:v>1.3358134920634921</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3358134920634921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3358134920634921</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3358134920634921</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2927579365079365</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2927579365079365</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2927579365079365</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.2927579365079365</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2927579365079365</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.1677579365079365</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1677579365079365</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1226190476190476</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1226190476190476</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.1226190476190476</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1226190476190476</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.1226190476190476</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.1226190476190476</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1226190476190476</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.0878968253968253</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.0878968253968253</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.0253968253968253</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.94206349206349194</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.94206349206349194</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.94206349206349194</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.90039682539682531</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.90039682539682531</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.87956349206349194</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.87956349206349194</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.83789682539682531</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.75456349206349194</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0F74-3943-B2C6-7B26057CD1D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="628435887"/>
+        <c:axId val="628353711"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="628435887"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628353711"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="628353711"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628435887"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR" sz="2000" b="1"/>
+              <a:t>Sprint 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Courbe idéal </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 2'!$B$2:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="1">
+                  <c:v>44489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44490</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44491</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44493</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44494</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44495</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44497</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44504</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44505</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44506</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44507</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44508</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44509</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44510</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44511</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44512</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44513</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44514</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44515</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44516</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44517</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44518</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44519</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44520</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44521</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44522</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44523</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44524</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44525</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$C$2:$C$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="1">
+                  <c:v>7.0476190476190474</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.8571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6666666666666661</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4761904761904754</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2857142857142847</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.095238095238094</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.9047619047619033</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7142857142857126</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5238095238095219</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3333333333333313</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.1428571428571406</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.9523809523809499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.7619047619047592</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.5714285714285685</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3809523809523778</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.1904761904761871</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.8095238095238058</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6190476190476151</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4285714285714244</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2380952380952337</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.047619047619043</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.8571428571428523</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.6666666666666616</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4761904761904709</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.2857142857142803</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.0952380952380896</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.9047619047618991</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.7142857142857086</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5238095238095182</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.3333333333333277</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1428571428571372</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.95238095238094678</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.76190476190475631</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.57142857142856585</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.38095238095237538</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.19047619047618491</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-5.5511151231257827E-15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32DF-0346-9088-E8F02356FBEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Sprint 2'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Courbe Réelle</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Sprint 2'!$B$2:$B$40</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="1">
+                  <c:v>44489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44490</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44491</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44493</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44494</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44495</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44496</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44497</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44498</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>44499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>44500</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>44501</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44502</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44503</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44504</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44505</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44506</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>44507</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44508</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>44509</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44510</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44511</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44512</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44513</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>44514</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44515</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44516</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>44517</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>44518</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44519</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>44520</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44521</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>44522</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44523</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>44524</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44525</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>44526</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 2'!$D$2:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="39"/>
+                <c:pt idx="1">
+                  <c:v>7.0476190476190474</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0372023809523805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0163690476190474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0163690476190474</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9885912698412698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8740079365079367</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8740079365079367</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.8740079365079367</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.7281746031746037</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7281746031746037</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.7281746031746037</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.7281746031746037</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.554563492063493</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.512896825396826</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.512896825396826</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.3948412698412707</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.2073412698412707</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.1413690476190483</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.1413690476190483</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.0788690476190483</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.0788690476190483</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.0788690476190483</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.0788690476190483</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.0788690476190483</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0788690476190483</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0788690476190483</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.9747023809523814</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.9747023809523814</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.7872023809523814</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.6726190476190483</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-32DF-0346-9088-E8F02356FBEE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -950,7 +4687,2787 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1491,6 +8008,221 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB8AC551-5370-BE43-987C-7B5C7D4E2337}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD7FADE0-3B07-D949-9299-7124A7DA569C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E68AFF-5829-6249-8264-063CF2BF9C15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{792EBB28-BB07-CB43-86F8-42FEB3AA768B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF638D0E-972A-F449-83B1-E091E0FD44A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1566,6 +8298,21 @@
         </row>
         <row r="13">
           <cell r="C13">
+            <v>4.1666666666666664E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>8.3333333333333329E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>2.0833333333333332E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
             <v>4.1666666666666664E-2</v>
           </cell>
         </row>
@@ -1651,6 +8398,71 @@
             <v>1.3888888888888888E-2</v>
           </cell>
         </row>
+        <row r="20">
+          <cell r="C20">
+            <v>2.0833333333333332E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>1.3888888888888888E-2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>3.125E-2</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>1.0416666666666666E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>2.0833333333333332E-2</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>4.1666666666666664E-2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>1.0416666666666666E-2</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>8.3333333333333329E-2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>5.2083333333333336E-2</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>2.0833333333333332E-2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>4.1666666666666664E-2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>0.1875</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>4.1666666666666664E-2</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="6">
@@ -1705,6 +8517,36 @@
         </row>
         <row r="16">
           <cell r="C16">
+            <v>5.2083333333333336E-2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>2.0833333333333332E-2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>1.0416666666666666E-2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>4.1666666666666664E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>4.1666666666666664E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>1.0416666666666666E-2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
             <v>5.2083333333333336E-2</v>
           </cell>
         </row>
@@ -1845,8 +8687,88 @@
             <v>3.125E-2</v>
           </cell>
         </row>
+        <row r="34">
+          <cell r="C34">
+            <v>1.0416666666666666E-2</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>1.3888888888888888E-2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>6.9444444444444441E-3</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>4.1666666666666664E-2</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>1.0416666666666666E-2</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>8.3333333333333329E-2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>3.472222222222222E-3</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>3.472222222222222E-3</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>5.2083333333333336E-2</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>3.472222222222222E-3</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>2.0833333333333332E-2</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>3.472222222222222E-3</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>1.0416666666666666E-2</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>4.1666666666666664E-2</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48">
+            <v>2.0833333333333332E-2</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
+        <row r="4">
+          <cell r="C4">
+            <v>1.3888888888888889E-3</v>
+          </cell>
+        </row>
         <row r="5">
           <cell r="C5">
             <v>4.1666666666666664E-2</v>
@@ -1875,6 +8797,36 @@
         <row r="10">
           <cell r="C10">
             <v>4.1666666666666664E-2</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>1.3888888888888888E-2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>3.125E-2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>2.0833333333333332E-2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>4.1666666666666664E-2</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>2.0833333333333332E-2</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>2.0833333333333332E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2182,9 +9134,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E944A8AF-E90A-674F-82B5-AF6B2FDA755D}">
   <dimension ref="B1:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2230,7 +9182,7 @@
         <v>44460</v>
       </c>
       <c r="C4" s="6">
-        <f>C3-(($F$1/7)*4)</f>
+        <f t="shared" ref="C4:C32" si="0">C3-(($F$1/7)*4)</f>
         <v>5.333333333333333</v>
       </c>
       <c r="D4" s="6">
@@ -2243,7 +9195,7 @@
         <v>44461</v>
       </c>
       <c r="C5" s="6">
-        <f>C4-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>5.1428571428571423</v>
       </c>
       <c r="D5" s="6">
@@ -2256,7 +9208,7 @@
         <v>44462</v>
       </c>
       <c r="C6" s="6">
-        <f>C5-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>4.9523809523809517</v>
       </c>
       <c r="D6" s="6">
@@ -2269,7 +9221,7 @@
         <v>44463</v>
       </c>
       <c r="C7" s="6">
-        <f>C6-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>4.761904761904761</v>
       </c>
       <c r="D7" s="6">
@@ -2282,7 +9234,7 @@
         <v>44464</v>
       </c>
       <c r="C8" s="6">
-        <f>C7-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>4.5714285714285703</v>
       </c>
       <c r="D8" s="6">
@@ -2295,7 +9247,7 @@
         <v>44465</v>
       </c>
       <c r="C9" s="6">
-        <f>C8-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>4.3809523809523796</v>
       </c>
       <c r="D9" s="6">
@@ -2308,7 +9260,7 @@
         <v>44466</v>
       </c>
       <c r="C10" s="6">
-        <f>C9-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>4.1904761904761889</v>
       </c>
       <c r="D10" s="6">
@@ -2321,7 +9273,7 @@
         <v>44467</v>
       </c>
       <c r="C11" s="6">
-        <f>C10-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>3.9999999999999982</v>
       </c>
       <c r="D11" s="6">
@@ -2334,7 +9286,7 @@
         <v>44468</v>
       </c>
       <c r="C12" s="6">
-        <f>C11-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>3.8095238095238075</v>
       </c>
       <c r="D12" s="6">
@@ -2347,7 +9299,7 @@
         <v>44469</v>
       </c>
       <c r="C13" s="6">
-        <f>C12-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>3.6190476190476168</v>
       </c>
       <c r="D13" s="6">
@@ -2363,7 +9315,7 @@
         <v>44470</v>
       </c>
       <c r="C14" s="6">
-        <f>C13-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>3.4285714285714262</v>
       </c>
       <c r="D14" s="6">
@@ -2376,7 +9328,7 @@
         <v>44471</v>
       </c>
       <c r="C15" s="6">
-        <f>C14-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>3.2380952380952355</v>
       </c>
       <c r="D15" s="6">
@@ -2389,7 +9341,7 @@
         <v>44472</v>
       </c>
       <c r="C16" s="6">
-        <f>C15-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>3.0476190476190448</v>
       </c>
       <c r="D16" s="6">
@@ -2402,7 +9354,7 @@
         <v>44473</v>
       </c>
       <c r="C17" s="6">
-        <f>C16-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>2.8571428571428541</v>
       </c>
       <c r="D17" s="6">
@@ -2415,7 +9367,7 @@
         <v>44474</v>
       </c>
       <c r="C18" s="6">
-        <f>C17-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>2.6666666666666634</v>
       </c>
       <c r="D18" s="6">
@@ -2428,7 +9380,7 @@
         <v>44475</v>
       </c>
       <c r="C19" s="6">
-        <f>C18-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>2.4761904761904727</v>
       </c>
       <c r="D19" s="6">
@@ -2441,7 +9393,7 @@
         <v>44476</v>
       </c>
       <c r="C20" s="6">
-        <f>C19-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>2.285714285714282</v>
       </c>
       <c r="D20" s="6">
@@ -2454,7 +9406,7 @@
         <v>44477</v>
       </c>
       <c r="C21" s="6">
-        <f>C20-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>2.0952380952380913</v>
       </c>
       <c r="D21" s="6">
@@ -2467,7 +9419,7 @@
         <v>44478</v>
       </c>
       <c r="C22" s="6">
-        <f>C21-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>1.9047619047619009</v>
       </c>
       <c r="D22" s="6">
@@ -2480,7 +9432,7 @@
         <v>44479</v>
       </c>
       <c r="C23" s="6">
-        <f>C22-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>1.7142857142857104</v>
       </c>
       <c r="D23" s="6">
@@ -2493,7 +9445,7 @@
         <v>44480</v>
       </c>
       <c r="C24" s="6">
-        <f>C23-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>1.52380952380952</v>
       </c>
       <c r="D24" s="6">
@@ -2506,7 +9458,7 @@
         <v>44481</v>
       </c>
       <c r="C25" s="6">
-        <f>C24-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>1.3333333333333295</v>
       </c>
       <c r="D25" s="6">
@@ -2519,7 +9471,7 @@
         <v>44482</v>
       </c>
       <c r="C26" s="6">
-        <f>C25-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>1.142857142857139</v>
       </c>
       <c r="D26" s="6">
@@ -2532,7 +9484,7 @@
         <v>44483</v>
       </c>
       <c r="C27" s="6">
-        <f>C26-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>0.95238095238094855</v>
       </c>
       <c r="D27" s="6">
@@ -2545,7 +9497,7 @@
         <v>44484</v>
       </c>
       <c r="C28" s="6">
-        <f>C27-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>0.76190476190475809</v>
       </c>
       <c r="D28" s="6">
@@ -2558,7 +9510,7 @@
         <v>44485</v>
       </c>
       <c r="C29" s="6">
-        <f>C28-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>0.57142857142856762</v>
       </c>
       <c r="D29" s="6">
@@ -2571,7 +9523,7 @@
         <v>44486</v>
       </c>
       <c r="C30" s="6">
-        <f>C29-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>0.38095238095237716</v>
       </c>
       <c r="D30" s="6">
@@ -2584,7 +9536,7 @@
         <v>44487</v>
       </c>
       <c r="C31" s="6">
-        <f>C30-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>0.19047619047618669</v>
       </c>
       <c r="D31" s="6">
@@ -2597,7 +9549,7 @@
         <v>44488</v>
       </c>
       <c r="C32" s="6">
-        <f>C31-(($F$1/7)*4)</f>
+        <f t="shared" si="0"/>
         <v>-3.7747582837255322E-15</v>
       </c>
       <c r="D32" s="6">
@@ -2610,4 +9562,2258 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CF9308-6F9B-4045-AEDD-F0743ADE84FF}">
+  <dimension ref="B1:F32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="5" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="5">
+        <v>44459</v>
+      </c>
+      <c r="C3" s="6">
+        <f>(F1/7)*29</f>
+        <v>1.3809523809523809</v>
+      </c>
+      <c r="D3" s="6">
+        <f>C3-([1]Commun!$C$4+[1]Commun!$C$5+[1]!Tableau4[[#This Row],[DURÉE]])</f>
+        <v>1.3323412698412698</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="5">
+        <v>44460</v>
+      </c>
+      <c r="C4" s="6">
+        <f>C3-(($F$1/7))</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="D4" s="6">
+        <f>D3</f>
+        <v>1.3323412698412698</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <v>44461</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" ref="C5:C32" si="0">C4-(($F$1/7))</f>
+        <v>1.2857142857142856</v>
+      </c>
+      <c r="D5" s="6">
+        <f>D4</f>
+        <v>1.3323412698412698</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <v>44462</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2380952380952379</v>
+      </c>
+      <c r="D6" s="6">
+        <f>D5-([1]Angela!$C$4)</f>
+        <v>1.2802579365079365</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
+        <v>44463</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1904761904761902</v>
+      </c>
+      <c r="D7" s="6">
+        <f>D6-([1]Angela!$C$5)</f>
+        <v>1.2524801587301588</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="5">
+        <v>44464</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1428571428571426</v>
+      </c>
+      <c r="D8" s="6">
+        <f>D7-([1]Angela!$C$6)</f>
+        <v>1.2455357142857144</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="5">
+        <v>44465</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0952380952380949</v>
+      </c>
+      <c r="D9" s="6">
+        <f>D8</f>
+        <v>1.2455357142857144</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="5">
+        <v>44466</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0476190476190472</v>
+      </c>
+      <c r="D10" s="6">
+        <f>D9-([1]Angela!$C$7)</f>
+        <v>1.2038690476190477</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="5">
+        <v>44467</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="D11" s="6">
+        <f>D10-([1]Angela!$C$8)</f>
+        <v>1.1622023809523809</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="5">
+        <v>44468</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.95238095238095188</v>
+      </c>
+      <c r="D12" s="6">
+        <f>D11-([1]Angela!$C$9+[1]Commun!$C$6)</f>
+        <v>1.1135912698412698</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="5">
+        <v>44469</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.90476190476190421</v>
+      </c>
+      <c r="D13" s="6">
+        <f>D12</f>
+        <v>1.1135912698412698</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.85714285714285654</v>
+      </c>
+      <c r="D14" s="6">
+        <f>D13-([1]Commun!$C$7+[1]Commun!$C$8)</f>
+        <v>1.0684523809523809</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
+        <v>44471</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.80952380952380887</v>
+      </c>
+      <c r="D15" s="6">
+        <f>D14</f>
+        <v>1.0684523809523809</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="5">
+        <v>44472</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.7619047619047612</v>
+      </c>
+      <c r="D16" s="6">
+        <f>D15</f>
+        <v>1.0684523809523809</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="5">
+        <v>44473</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.71428571428571352</v>
+      </c>
+      <c r="D17" s="6">
+        <f>D16</f>
+        <v>1.0684523809523809</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="5">
+        <v>44474</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666585</v>
+      </c>
+      <c r="D18" s="6">
+        <f>D17</f>
+        <v>1.0684523809523809</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="5">
+        <v>44475</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.61904761904761818</v>
+      </c>
+      <c r="D19" s="6">
+        <f>D18</f>
+        <v>1.0684523809523809</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="5">
+        <v>44476</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.57142857142857051</v>
+      </c>
+      <c r="D20" s="6">
+        <f>D19</f>
+        <v>1.0684523809523809</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="5">
+        <v>44477</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.52380952380952284</v>
+      </c>
+      <c r="D21" s="6">
+        <f>D20-([1]Commun!$C$9)</f>
+        <v>1.0406746031746033</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="5">
+        <v>44478</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.47619047619047522</v>
+      </c>
+      <c r="D22" s="6">
+        <f>D21</f>
+        <v>1.0406746031746033</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="5">
+        <v>44479</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4285714285714276</v>
+      </c>
+      <c r="D23" s="6">
+        <f>D22-([1]Angela!$C$10)</f>
+        <v>1.01984126984127</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="5">
+        <v>44480</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.38095238095237999</v>
+      </c>
+      <c r="D24" s="6">
+        <f>D23-([1]Commun!$C$10+[1]Angela!$C$11+[1]Angela!$C$12)</f>
+        <v>0.88442460317460336</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="5">
+        <v>44481</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333237</v>
+      </c>
+      <c r="D25" s="6">
+        <f>D24</f>
+        <v>0.88442460317460336</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="5">
+        <v>44482</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.28571428571428475</v>
+      </c>
+      <c r="D26" s="6">
+        <f>D25-([1]Angela!$C$13+[1]Angela!$C$14+[1]Angela!$C$15)</f>
+        <v>0.82192460317460336</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="5">
+        <v>44483</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.23809523809523714</v>
+      </c>
+      <c r="D27" s="6">
+        <f>D26-([1]Commun!$C$11)</f>
+        <v>0.78025793650793673</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="5">
+        <v>44484</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19047619047618952</v>
+      </c>
+      <c r="D28" s="6">
+        <f>D27-([1]Angela!$C$16+[1]Angela!$C$17)</f>
+        <v>0.64831349206349231</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="5">
+        <v>44485</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714191</v>
+      </c>
+      <c r="D29" s="6">
+        <f>D28-([1]Angela!$C$18)</f>
+        <v>0.54414682539682568</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="5">
+        <v>44486</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" si="0"/>
+        <v>9.5238095238094289E-2</v>
+      </c>
+      <c r="D30" s="6">
+        <f>D29</f>
+        <v>0.54414682539682568</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="5">
+        <v>44487</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" si="0"/>
+        <v>4.7619047619046673E-2</v>
+      </c>
+      <c r="D31" s="6">
+        <f>D30-([1]Commun!$C$12+[1]Angela!$C$19)</f>
+        <v>0.4885912698412701</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="5">
+        <v>44488</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="0"/>
+        <v>-9.4368957093138306E-16</v>
+      </c>
+      <c r="D32" s="6">
+        <f>D31-([1]Commun!$C$13)</f>
+        <v>0.44692460317460342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260ACEC8-6D1A-CB4E-B288-FC5123DB54E7}">
+  <dimension ref="B1:F32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="5" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="5">
+        <v>44459</v>
+      </c>
+      <c r="C3" s="6">
+        <f>(F1/7)*29</f>
+        <v>1.3809523809523809</v>
+      </c>
+      <c r="D3" s="6">
+        <f>C3-([1]Commun!$C$4+[1]Commun!$C$5)</f>
+        <v>1.3392857142857142</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="5">
+        <v>44460</v>
+      </c>
+      <c r="C4" s="6">
+        <f>C3-(($F$1/7))</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="D4" s="6">
+        <f>D3-([1]!Tableau3[[#This Row],[DURÉE]])</f>
+        <v>1.3323412698412698</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <v>44461</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" ref="C5:C32" si="0">C4-(($F$1/7))</f>
+        <v>1.2857142857142856</v>
+      </c>
+      <c r="D5" s="6">
+        <f>D4-([1]!Tableau3[[#This Row],[DURÉE]])</f>
+        <v>1.3253968253968254</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <v>44462</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2380952380952379</v>
+      </c>
+      <c r="D6" s="6">
+        <f>D5</f>
+        <v>1.3253968253968254</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
+        <v>44463</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1904761904761902</v>
+      </c>
+      <c r="D7" s="6">
+        <f>D6-([1]Aurélie!$C$6)</f>
+        <v>1.3115079365079365</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="5">
+        <v>44464</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1428571428571426</v>
+      </c>
+      <c r="D8" s="6">
+        <f>D7</f>
+        <v>1.3115079365079365</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="5">
+        <v>44465</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0952380952380949</v>
+      </c>
+      <c r="D9" s="6">
+        <f>D8-([1]Aurélie!$C$7)</f>
+        <v>1.2698412698412698</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="5">
+        <v>44466</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0476190476190472</v>
+      </c>
+      <c r="D10" s="6">
+        <f>D9</f>
+        <v>1.2698412698412698</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="5">
+        <v>44467</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="D11" s="6">
+        <f>D10</f>
+        <v>1.2698412698412698</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="5">
+        <v>44468</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.95238095238095188</v>
+      </c>
+      <c r="D12" s="6">
+        <f>D11-([1]Aurélie!$C$8+[1]Commun!$C$6)</f>
+        <v>1.1448412698412698</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="5">
+        <v>44469</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.90476190476190421</v>
+      </c>
+      <c r="D13" s="6">
+        <f>D12</f>
+        <v>1.1448412698412698</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.85714285714285654</v>
+      </c>
+      <c r="D14" s="6">
+        <f>D13-([1]Commun!$C$7+[1]Commun!$C$8)</f>
+        <v>1.0997023809523809</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
+        <v>44471</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.80952380952380887</v>
+      </c>
+      <c r="D15" s="6">
+        <f>D14</f>
+        <v>1.0997023809523809</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="5">
+        <v>44472</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.7619047619047612</v>
+      </c>
+      <c r="D16" s="6">
+        <f>D15-([1]Aurélie!$C$9+[1]Aurélie!$C$10+[1]Aurélie!$C$11)</f>
+        <v>1.0580357142857142</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="5">
+        <v>44473</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.71428571428571352</v>
+      </c>
+      <c r="D17" s="6">
+        <f>D16</f>
+        <v>1.0580357142857142</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="5">
+        <v>44474</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666585</v>
+      </c>
+      <c r="D18" s="6">
+        <f>D17</f>
+        <v>1.0580357142857142</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="5">
+        <v>44475</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.61904761904761818</v>
+      </c>
+      <c r="D19" s="6">
+        <f>D18</f>
+        <v>1.0580357142857142</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="5">
+        <v>44476</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.57142857142857051</v>
+      </c>
+      <c r="D20" s="6">
+        <f>D19</f>
+        <v>1.0580357142857142</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="5">
+        <v>44477</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.52380952380952284</v>
+      </c>
+      <c r="D21" s="6">
+        <f>D20-([1]Commun!$C$9+[1]Aurélie!$C$12)</f>
+        <v>1.0198412698412698</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="5">
+        <v>44478</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.47619047619047522</v>
+      </c>
+      <c r="D22" s="6">
+        <f>D21</f>
+        <v>1.0198412698412698</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="5">
+        <v>44479</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4285714285714276</v>
+      </c>
+      <c r="D23" s="6">
+        <f>D22-([1]Aurélie!$C$13+[1]Aurélie!$C$14+[1]Aurélie!$C$15)</f>
+        <v>0.87748015873015861</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="5">
+        <v>44480</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.38095238095237999</v>
+      </c>
+      <c r="D24" s="6">
+        <f>D23-([1]Commun!$C$10)</f>
+        <v>0.79414682539682524</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="5">
+        <v>44481</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333237</v>
+      </c>
+      <c r="D25" s="6">
+        <f>D24</f>
+        <v>0.79414682539682524</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="5">
+        <v>44482</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.28571428571428475</v>
+      </c>
+      <c r="D26" s="6">
+        <f>D25</f>
+        <v>0.79414682539682524</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="5">
+        <v>44483</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.23809523809523714</v>
+      </c>
+      <c r="D27" s="6">
+        <f>D26-([1]Commun!$C$11+[1]Aurélie!$C$16)</f>
+        <v>0.70039682539682524</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="5">
+        <v>44484</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19047619047618952</v>
+      </c>
+      <c r="D28" s="6">
+        <f>D27</f>
+        <v>0.70039682539682524</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="5">
+        <v>44485</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714191</v>
+      </c>
+      <c r="D29" s="6">
+        <f>D28</f>
+        <v>0.70039682539682524</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="5">
+        <v>44486</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" si="0"/>
+        <v>9.5238095238094289E-2</v>
+      </c>
+      <c r="D30" s="6">
+        <f>D29</f>
+        <v>0.70039682539682524</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="5">
+        <v>44487</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" si="0"/>
+        <v>4.7619047619046673E-2</v>
+      </c>
+      <c r="D31" s="6">
+        <f>D30-([1]Commun!$C$12)</f>
+        <v>0.65873015873015861</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="5">
+        <v>44488</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="0"/>
+        <v>-9.4368957093138306E-16</v>
+      </c>
+      <c r="D32" s="6">
+        <f>D31-([1]Commun!$C$13)</f>
+        <v>0.61706349206349198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96421919-AD2A-D749-A669-506A039EBD4B}">
+  <dimension ref="B1:F32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="5" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="5">
+        <v>44459</v>
+      </c>
+      <c r="C3" s="6">
+        <f>(F1/7)*29</f>
+        <v>1.3809523809523809</v>
+      </c>
+      <c r="D3" s="6">
+        <f>C3-([1]Commun!$C$4+[1]Commun!$C$5+[1]Coralie!$C$4+[1]!Tableau1[[#This Row],[DURÉE]])</f>
+        <v>1.3323412698412698</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="5">
+        <v>44460</v>
+      </c>
+      <c r="C4" s="6">
+        <f>C3-(($F$1/7))</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="D4" s="6">
+        <f>D3</f>
+        <v>1.3323412698412698</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <v>44461</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" ref="C5:C32" si="0">C4-(($F$1/7))</f>
+        <v>1.2857142857142856</v>
+      </c>
+      <c r="D5" s="6">
+        <f>D4-([1]!Tableau1[[#This Row],[DURÉE]])</f>
+        <v>1.3288690476190474</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <v>44462</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2380952380952379</v>
+      </c>
+      <c r="D6" s="6">
+        <f>D5</f>
+        <v>1.3288690476190474</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
+        <v>44463</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1904761904761902</v>
+      </c>
+      <c r="D7" s="6">
+        <f>D6</f>
+        <v>1.3288690476190474</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="5">
+        <v>44464</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1428571428571426</v>
+      </c>
+      <c r="D8" s="6">
+        <f>D7</f>
+        <v>1.3288690476190474</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="5">
+        <v>44465</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0952380952380949</v>
+      </c>
+      <c r="D9" s="6">
+        <f>D8-([1]Coralie!$C$6+[1]Coralie!$C$7)</f>
+        <v>1.2003968253968251</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="5">
+        <v>44466</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0476190476190472</v>
+      </c>
+      <c r="D10" s="6">
+        <f>D9-([1]Coralie!$C$8)</f>
+        <v>1.1587301587301584</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="5">
+        <v>44467</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="D11" s="6">
+        <f>D10-([1]Coralie!$C$9+[1]Coralie!$C$10)</f>
+        <v>1.1170634920634916</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="5">
+        <v>44468</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.95238095238095188</v>
+      </c>
+      <c r="D12" s="6">
+        <f>D11-([1]Commun!$C$6)</f>
+        <v>1.0753968253968249</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="5">
+        <v>44469</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.90476190476190421</v>
+      </c>
+      <c r="D13" s="6">
+        <f>D12</f>
+        <v>1.0753968253968249</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.85714285714285654</v>
+      </c>
+      <c r="D14" s="6">
+        <f>D13-([1]Commun!$C$7+[1]Commun!$C$8+[1]Coralie!$C$12)</f>
+        <v>1.0094246031746026</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
+        <v>44471</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.80952380952380887</v>
+      </c>
+      <c r="D15" s="6">
+        <f>D14</f>
+        <v>1.0094246031746026</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="5">
+        <v>44472</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.7619047619047612</v>
+      </c>
+      <c r="D16" s="6">
+        <f>D15-([1]Coralie!$C$13+[1]Coralie!$C$14+[1]Coralie!$C$15)</f>
+        <v>0.92261904761904701</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="5">
+        <v>44473</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.71428571428571352</v>
+      </c>
+      <c r="D17" s="6">
+        <f>D16</f>
+        <v>0.92261904761904701</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="5">
+        <v>44474</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666585</v>
+      </c>
+      <c r="D18" s="6">
+        <f>D17</f>
+        <v>0.92261904761904701</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="5">
+        <v>44475</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.61904761904761818</v>
+      </c>
+      <c r="D19" s="6">
+        <f>D18</f>
+        <v>0.92261904761904701</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="5">
+        <v>44476</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.57142857142857051</v>
+      </c>
+      <c r="D20" s="6">
+        <f>D19</f>
+        <v>0.92261904761904701</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="5">
+        <v>44477</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.52380952380952284</v>
+      </c>
+      <c r="D21" s="6">
+        <f>D20-([1]Commun!$C$9+[1]Coralie!$C$16+[1]Coralie!$C$17+[1]Coralie!$C$18)</f>
+        <v>0.87053571428571364</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="5">
+        <v>44478</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.47619047619047522</v>
+      </c>
+      <c r="D22" s="6">
+        <f>D21</f>
+        <v>0.87053571428571364</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="5">
+        <v>44479</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4285714285714276</v>
+      </c>
+      <c r="D23" s="6">
+        <f>D22</f>
+        <v>0.87053571428571364</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="5">
+        <v>44480</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.38095238095237999</v>
+      </c>
+      <c r="D24" s="6">
+        <f>D23-([1]Commun!$C$10+[1]Coralie!$C$19+[1]Coralie!$C$20)</f>
+        <v>0.74553571428571364</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="5">
+        <v>44481</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333237</v>
+      </c>
+      <c r="D25" s="6">
+        <f>D24</f>
+        <v>0.74553571428571364</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="5">
+        <v>44482</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.28571428571428475</v>
+      </c>
+      <c r="D26" s="6">
+        <f>D25</f>
+        <v>0.74553571428571364</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="5">
+        <v>44483</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.23809523809523714</v>
+      </c>
+      <c r="D27" s="6">
+        <f>D26-([1]Commun!$C$11+[1]Coralie!$C$21+[1]Coralie!$C$22+[1]Coralie!$C$23+[1]Coralie!$C$24)</f>
+        <v>0.6066468253968248</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="5">
+        <v>44484</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19047619047618952</v>
+      </c>
+      <c r="D28" s="6">
+        <f>D27-([1]Coralie!$C$25)</f>
+        <v>0.55456349206349143</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="5">
+        <v>44485</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714191</v>
+      </c>
+      <c r="D29" s="6">
+        <f>D28-([1]Coralie!$C$26+[1]Coralie!$C$27+[1]Coralie!$C$28+[1]!Tableau1[[#This Row],[DURÉE]]+[1]Coralie!$C$30)</f>
+        <v>0.38095238095238032</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="5">
+        <v>44486</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" si="0"/>
+        <v>9.5238095238094289E-2</v>
+      </c>
+      <c r="D30" s="6">
+        <f>D29-([1]Coralie!$C$31+[1]Coralie!$C$32)</f>
+        <v>0.35317460317460253</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="5">
+        <v>44487</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" si="0"/>
+        <v>4.7619047619046673E-2</v>
+      </c>
+      <c r="D31" s="6">
+        <f>D30-([1]Commun!$C$12+[1]Coralie!$C$33)</f>
+        <v>0.28025793650793585</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="5">
+        <v>44488</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="0"/>
+        <v>-9.4368957093138306E-16</v>
+      </c>
+      <c r="D32" s="6">
+        <f>D31-([1]Commun!$C$13)</f>
+        <v>0.23859126984126919</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADB3C67-CBB4-A646-8CFB-4E9D29F5BD23}">
+  <dimension ref="B1:F32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="5" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="5">
+        <v>44459</v>
+      </c>
+      <c r="C3" s="6">
+        <f>(F1/7)*29</f>
+        <v>1.3809523809523809</v>
+      </c>
+      <c r="D3" s="6">
+        <f>C3-([1]Commun!$C$4+[1]Commun!$C$5+[1]!Tableau2[[#This Row],[DURÉE]])</f>
+        <v>1.3358134920634921</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="5">
+        <v>44460</v>
+      </c>
+      <c r="C4" s="6">
+        <f>C3-(($F$1/7))</f>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="D4" s="6">
+        <f>D3</f>
+        <v>1.3358134920634921</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <v>44461</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" ref="C5:C32" si="0">C4-(($F$1/7))</f>
+        <v>1.2857142857142856</v>
+      </c>
+      <c r="D5" s="6">
+        <f>D4</f>
+        <v>1.3358134920634921</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <v>44462</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>1.2380952380952379</v>
+      </c>
+      <c r="D6" s="6">
+        <f>D5</f>
+        <v>1.3358134920634921</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
+        <v>44463</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1904761904761902</v>
+      </c>
+      <c r="D7" s="6">
+        <f>D6-([1]Constantin!$C$5+[1]Constantin!$C$4)</f>
+        <v>1.2927579365079365</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="5">
+        <v>44464</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1428571428571426</v>
+      </c>
+      <c r="D8" s="6">
+        <f>D7</f>
+        <v>1.2927579365079365</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="5">
+        <v>44465</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0952380952380949</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" ref="D9:D11" si="1">D8</f>
+        <v>1.2927579365079365</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="5">
+        <v>44466</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0476190476190472</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="1"/>
+        <v>1.2927579365079365</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="5">
+        <v>44467</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>0.99999999999999956</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="1"/>
+        <v>1.2927579365079365</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="5">
+        <v>44468</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>0.95238095238095188</v>
+      </c>
+      <c r="D12" s="6">
+        <f>D11-([1]Constantin!$C$6+[1]Commun!$C$6)</f>
+        <v>1.1677579365079365</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="5">
+        <v>44469</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.90476190476190421</v>
+      </c>
+      <c r="D13" s="6">
+        <f>D12</f>
+        <v>1.1677579365079365</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.85714285714285654</v>
+      </c>
+      <c r="D14" s="6">
+        <f>D13-([1]Commun!$C$7+[1]Commun!$C$8)</f>
+        <v>1.1226190476190476</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
+        <v>44471</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="0"/>
+        <v>0.80952380952380887</v>
+      </c>
+      <c r="D15" s="6">
+        <f>D14</f>
+        <v>1.1226190476190476</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="5">
+        <v>44472</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.7619047619047612</v>
+      </c>
+      <c r="D16" s="6">
+        <f>D15</f>
+        <v>1.1226190476190476</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="5">
+        <v>44473</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.71428571428571352</v>
+      </c>
+      <c r="D17" s="6">
+        <f>D16</f>
+        <v>1.1226190476190476</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="5">
+        <v>44474</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666585</v>
+      </c>
+      <c r="D18" s="6">
+        <f>D17</f>
+        <v>1.1226190476190476</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="5">
+        <v>44475</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.61904761904761818</v>
+      </c>
+      <c r="D19" s="6">
+        <f>D18</f>
+        <v>1.1226190476190476</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="5">
+        <v>44476</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.57142857142857051</v>
+      </c>
+      <c r="D20" s="6">
+        <f>D19</f>
+        <v>1.1226190476190476</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="5">
+        <v>44477</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.52380952380952284</v>
+      </c>
+      <c r="D21" s="6">
+        <f>D20-([1]Commun!$C$9+[1]Constantin!$C$7)</f>
+        <v>1.0878968253968253</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="5">
+        <v>44478</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" si="0"/>
+        <v>0.47619047619047522</v>
+      </c>
+      <c r="D22" s="6">
+        <f>D21</f>
+        <v>1.0878968253968253</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="5">
+        <v>44479</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="0"/>
+        <v>0.4285714285714276</v>
+      </c>
+      <c r="D23" s="6">
+        <f>D22-([1]Constantin!$C$8)</f>
+        <v>1.0253968253968253</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="5">
+        <v>44480</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" si="0"/>
+        <v>0.38095238095237999</v>
+      </c>
+      <c r="D24" s="6">
+        <f>D23-([1]Commun!$C$10)</f>
+        <v>0.94206349206349194</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="5">
+        <v>44481</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" si="0"/>
+        <v>0.33333333333333237</v>
+      </c>
+      <c r="D25" s="6">
+        <f>D24</f>
+        <v>0.94206349206349194</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="5">
+        <v>44482</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" si="0"/>
+        <v>0.28571428571428475</v>
+      </c>
+      <c r="D26" s="6">
+        <f>D25</f>
+        <v>0.94206349206349194</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="5">
+        <v>44483</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" si="0"/>
+        <v>0.23809523809523714</v>
+      </c>
+      <c r="D27" s="6">
+        <f>D26-([1]Commun!$C$11)</f>
+        <v>0.90039682539682531</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="5">
+        <v>44484</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19047619047618952</v>
+      </c>
+      <c r="D28" s="6">
+        <f>D27</f>
+        <v>0.90039682539682531</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="5">
+        <v>44485</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714191</v>
+      </c>
+      <c r="D29" s="6">
+        <f>D28-([1]Constantin!$C$9)</f>
+        <v>0.87956349206349194</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="5">
+        <v>44486</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" si="0"/>
+        <v>9.5238095238094289E-2</v>
+      </c>
+      <c r="D30" s="6">
+        <f>D29</f>
+        <v>0.87956349206349194</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="5">
+        <v>44487</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" si="0"/>
+        <v>4.7619047619046673E-2</v>
+      </c>
+      <c r="D31" s="6">
+        <f>D30-([1]Commun!$C$12)</f>
+        <v>0.83789682539682531</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="5">
+        <v>44488</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="0"/>
+        <v>-9.4368957093138306E-16</v>
+      </c>
+      <c r="D32" s="6">
+        <f>D31-([1]Commun!$C$13+[1]Constantin!$C$10)</f>
+        <v>0.75456349206349194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F751D1-D530-4D4B-B04B-5D0F9CEA0F75}">
+  <dimension ref="B1:F40"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="5" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="2" spans="2:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B3" s="5">
+        <v>44489</v>
+      </c>
+      <c r="C3" s="6">
+        <f>(F1*4/7)*37</f>
+        <v>7.0476190476190474</v>
+      </c>
+      <c r="D3" s="6">
+        <f>C3</f>
+        <v>7.0476190476190474</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B4" s="5">
+        <v>44490</v>
+      </c>
+      <c r="C4" s="6">
+        <f>C3-(($F$1/7)*4)</f>
+        <v>6.8571428571428568</v>
+      </c>
+      <c r="D4" s="6">
+        <f>D3-([1]Coralie!$C$34)</f>
+        <v>7.0372023809523805</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <v>44491</v>
+      </c>
+      <c r="C5" s="6">
+        <f t="shared" ref="C5:C40" si="0">C4-(($F$1/7)*4)</f>
+        <v>6.6666666666666661</v>
+      </c>
+      <c r="D5" s="6">
+        <f>D4-([1]Angela!$C$20)</f>
+        <v>7.0163690476190474</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <v>44492</v>
+      </c>
+      <c r="C6" s="6">
+        <f t="shared" si="0"/>
+        <v>6.4761904761904754</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" ref="D5:D40" si="1">D5</f>
+        <v>7.0163690476190474</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
+        <v>44493</v>
+      </c>
+      <c r="C7" s="6">
+        <f t="shared" si="0"/>
+        <v>6.2857142857142847</v>
+      </c>
+      <c r="D7" s="6">
+        <f>D6-([1]Angela!$C$21+[1]Coralie!$C$35)</f>
+        <v>6.9885912698412698</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="5">
+        <v>44494</v>
+      </c>
+      <c r="C8" s="6">
+        <f t="shared" si="0"/>
+        <v>6.095238095238094</v>
+      </c>
+      <c r="D8" s="6">
+        <f>D7-([1]Angela!$C$22+[1]Angela!$C$23+[1]Coralie!$C$36+[1]Constantin!$C$11+[1]Constantin!$C$12+[1]Constantin!$C$13)</f>
+        <v>6.8740079365079367</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="5">
+        <v>44495</v>
+      </c>
+      <c r="C9" s="6">
+        <f t="shared" si="0"/>
+        <v>5.9047619047619033</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="1"/>
+        <v>6.8740079365079367</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="5">
+        <v>44496</v>
+      </c>
+      <c r="C10" s="6">
+        <f t="shared" si="0"/>
+        <v>5.7142857142857126</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="1"/>
+        <v>6.8740079365079367</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="5">
+        <v>44497</v>
+      </c>
+      <c r="C11" s="6">
+        <f t="shared" si="0"/>
+        <v>5.5238095238095219</v>
+      </c>
+      <c r="D11" s="6">
+        <f>D10-([1]Angela!$C$24+[1]Angela!$C$25+[1]Angela!$C$26+[1]Aurélie!$C$17+[1]Coralie!$C$37+[1]Coralie!$C$38)</f>
+        <v>6.7281746031746037</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="5">
+        <v>44498</v>
+      </c>
+      <c r="C12" s="6">
+        <f t="shared" si="0"/>
+        <v>5.3333333333333313</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="1"/>
+        <v>6.7281746031746037</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="5">
+        <v>44499</v>
+      </c>
+      <c r="C13" s="6">
+        <f t="shared" si="0"/>
+        <v>5.1428571428571406</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="1"/>
+        <v>6.7281746031746037</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="5">
+        <v>44500</v>
+      </c>
+      <c r="C14" s="6">
+        <f t="shared" si="0"/>
+        <v>4.9523809523809499</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="1"/>
+        <v>6.7281746031746037</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
+        <v>44501</v>
+      </c>
+      <c r="C15" s="6">
+        <f t="shared" si="0"/>
+        <v>4.7619047619047592</v>
+      </c>
+      <c r="D15" s="6">
+        <f>D14-([1]Angela!$C$27+[1]Coralie!$C$39+[1]Coralie!$C$40+[1]Coralie!$C$41)</f>
+        <v>6.554563492063493</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B16" s="5">
+        <v>44502</v>
+      </c>
+      <c r="C16" s="6">
+        <f t="shared" si="0"/>
+        <v>4.5714285714285685</v>
+      </c>
+      <c r="D16" s="6">
+        <f>D15-([1]Constantin!$C$14)</f>
+        <v>6.512896825396826</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B17" s="5">
+        <v>44503</v>
+      </c>
+      <c r="C17" s="6">
+        <f t="shared" si="0"/>
+        <v>4.3809523809523778</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="1"/>
+        <v>6.512896825396826</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B18" s="5">
+        <v>44504</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" si="0"/>
+        <v>4.1904761904761871</v>
+      </c>
+      <c r="D18" s="6">
+        <f>D17-([1]Angela!$C$28+[1]Aurélie!$C$18+[1]Coralie!$C$42+[1]Coralie!$C$43)</f>
+        <v>6.3948412698412707</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B19" s="5">
+        <v>44505</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999964</v>
+      </c>
+      <c r="D19" s="6">
+        <f>D18-([1]Commun!$C$14+[1]Commun!$C$15+[1]Aurélie!$C$19+[1]Aurélie!$C$20)</f>
+        <v>6.2073412698412707</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B20" s="5">
+        <v>44506</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" si="0"/>
+        <v>3.8095238095238058</v>
+      </c>
+      <c r="D20" s="6">
+        <f>D19-([1]Angela!$C$29+[1]Coralie!$C$44+[1]Coralie!$C$45+[1]Constantin!$C$15)</f>
+        <v>6.1413690476190483</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B21" s="5">
+        <v>44507</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="0"/>
+        <v>3.6190476190476151</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="1"/>
+        <v>6.1413690476190483</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B22" s="5">
+        <v>44508</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" si="0"/>
+        <v>3.4285714285714244</v>
+      </c>
+      <c r="D22" s="6">
+        <f>D21-([1]Commun!$C$16+[1]Constantin!$C$16)</f>
+        <v>6.0788690476190483</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B23" s="5">
+        <v>44509</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="0"/>
+        <v>3.2380952380952337</v>
+      </c>
+      <c r="D23" s="6">
+        <f t="shared" si="1"/>
+        <v>6.0788690476190483</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B24" s="5">
+        <v>44510</v>
+      </c>
+      <c r="C24" s="6">
+        <f t="shared" si="0"/>
+        <v>3.047619047619043</v>
+      </c>
+      <c r="D24" s="6">
+        <f t="shared" si="1"/>
+        <v>6.0788690476190483</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B25" s="5">
+        <v>44511</v>
+      </c>
+      <c r="C25" s="6">
+        <f t="shared" si="0"/>
+        <v>2.8571428571428523</v>
+      </c>
+      <c r="D25" s="6">
+        <f t="shared" si="1"/>
+        <v>6.0788690476190483</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B26" s="5">
+        <v>44512</v>
+      </c>
+      <c r="C26" s="6">
+        <f t="shared" si="0"/>
+        <v>2.6666666666666616</v>
+      </c>
+      <c r="D26" s="6">
+        <f t="shared" si="1"/>
+        <v>6.0788690476190483</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B27" s="5">
+        <v>44513</v>
+      </c>
+      <c r="C27" s="6">
+        <f t="shared" si="0"/>
+        <v>2.4761904761904709</v>
+      </c>
+      <c r="D27" s="6">
+        <f t="shared" si="1"/>
+        <v>6.0788690476190483</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B28" s="5">
+        <v>44514</v>
+      </c>
+      <c r="C28" s="6">
+        <f t="shared" si="0"/>
+        <v>2.2857142857142803</v>
+      </c>
+      <c r="D28" s="6">
+        <f t="shared" si="1"/>
+        <v>6.0788690476190483</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B29" s="5">
+        <v>44515</v>
+      </c>
+      <c r="C29" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0952380952380896</v>
+      </c>
+      <c r="D29" s="6">
+        <f>D28-([1]Angela!$C$30+[1]Aurélie!$C$21+[1]Coralie!$C$46+[1]Coralie!$C$47)</f>
+        <v>5.9747023809523814</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B30" s="5">
+        <v>44516</v>
+      </c>
+      <c r="C30" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9047619047618991</v>
+      </c>
+      <c r="D30" s="6">
+        <f t="shared" si="1"/>
+        <v>5.9747023809523814</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B31" s="5">
+        <v>44517</v>
+      </c>
+      <c r="C31" s="6">
+        <f t="shared" si="0"/>
+        <v>1.7142857142857086</v>
+      </c>
+      <c r="D31" s="6">
+        <f>D30-([1]Angela!$C$31)</f>
+        <v>5.7872023809523814</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B32" s="5">
+        <v>44518</v>
+      </c>
+      <c r="C32" s="6">
+        <f t="shared" si="0"/>
+        <v>1.5238095238095182</v>
+      </c>
+      <c r="D32" s="6">
+        <f>D31-([1]Angela!$C$32+[1]Aurélie!$C$22+[1]Coralie!$C$48)</f>
+        <v>5.6726190476190483</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B33" s="5">
+        <v>44519</v>
+      </c>
+      <c r="C33" s="6">
+        <f t="shared" si="0"/>
+        <v>1.3333333333333277</v>
+      </c>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B34" s="5">
+        <v>44520</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" si="0"/>
+        <v>1.1428571428571372</v>
+      </c>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B35" s="5">
+        <v>44521</v>
+      </c>
+      <c r="C35" s="6">
+        <f t="shared" si="0"/>
+        <v>0.95238095238094678</v>
+      </c>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B36" s="5">
+        <v>44522</v>
+      </c>
+      <c r="C36" s="6">
+        <f t="shared" si="0"/>
+        <v>0.76190476190475631</v>
+      </c>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B37" s="5">
+        <v>44523</v>
+      </c>
+      <c r="C37" s="6">
+        <f t="shared" si="0"/>
+        <v>0.57142857142856585</v>
+      </c>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B38" s="5">
+        <v>44524</v>
+      </c>
+      <c r="C38" s="6">
+        <f t="shared" si="0"/>
+        <v>0.38095238095237538</v>
+      </c>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B39" s="5">
+        <v>44525</v>
+      </c>
+      <c r="C39" s="6">
+        <f t="shared" si="0"/>
+        <v>0.19047619047618491</v>
+      </c>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B40" s="5">
+        <v>44526</v>
+      </c>
+      <c r="C40" s="6">
+        <f t="shared" si="0"/>
+        <v>-5.5511151231257827E-15</v>
+      </c>
+      <c r="D40" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <ignoredErrors>
+    <ignoredError sqref="D31" formula="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Documents/Scrum/BurnDown_chart.xlsx
+++ b/Documents/Scrum/BurnDown_chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA0C56D-B2CA-9942-A0FA-FF2B4373C5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A0E50D-1C7A-064D-9B94-C68BEFDE79BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="0" windowWidth="18560" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11080" yWindow="0" windowWidth="17720" windowHeight="18000" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 - Commun" sheetId="5" r:id="rId1"/>
@@ -621,94 +621,94 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="1">
-                  <c:v>5.464781746031746</c:v>
+                  <c:v>5.339781746031746</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.4578373015873014</c:v>
+                  <c:v>5.3328373015873014</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4474206349206344</c:v>
+                  <c:v>5.3224206349206344</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.3953373015873014</c:v>
+                  <c:v>5.2703373015873014</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.3120039682539684</c:v>
+                  <c:v>5.1870039682539684</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3050595238095237</c:v>
+                  <c:v>5.1800595238095237</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1349206349206344</c:v>
+                  <c:v>5.0099206349206344</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0515873015873014</c:v>
+                  <c:v>4.9265873015873014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.9265873015873014</c:v>
+                  <c:v>4.8015873015873014</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.7113095238095237</c:v>
+                  <c:v>4.4613095238095237</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.7113095238095237</c:v>
+                  <c:v>4.4613095238095237</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.6453373015873014</c:v>
+                  <c:v>4.2599206349206344</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.6453373015873014</c:v>
+                  <c:v>4.2599206349206344</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.5168650793650791</c:v>
+                  <c:v>4.1314484126984121</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5168650793650791</c:v>
+                  <c:v>4.1314484126984121</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.5168650793650791</c:v>
+                  <c:v>4.1314484126984121</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.5168650793650791</c:v>
+                  <c:v>4.1314484126984121</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.5168650793650791</c:v>
+                  <c:v>4.1314484126984121</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.4474206349206344</c:v>
+                  <c:v>3.9786706349206344</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.4474206349206344</c:v>
+                  <c:v>3.9786706349206344</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.2217261904761898</c:v>
+                  <c:v>3.7529761904761898</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.0446428571428568</c:v>
+                  <c:v>3.3258928571428568</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.0446428571428568</c:v>
+                  <c:v>3.3258928571428568</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.9821428571428568</c:v>
+                  <c:v>3.2633928571428568</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.7911706349206344</c:v>
+                  <c:v>2.9474206349206344</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>3.6071428571428568</c:v>
+                  <c:v>2.7633928571428568</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.3085317460317456</c:v>
+                  <c:v>2.4647817460317456</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.2807539682539679</c:v>
+                  <c:v>2.4370039682539679</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.1939484126984126</c:v>
+                  <c:v>2.2251984126984126</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3.1106150793650791</c:v>
+                  <c:v>2.0168650793650791</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4401,46 +4401,70 @@
                   <c:v>6.3948412698412707</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.2073412698412707</c:v>
+                  <c:v>5.8948412698412707</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.1413690476190483</c:v>
+                  <c:v>5.8392857142857153</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.1413690476190483</c:v>
+                  <c:v>5.8392857142857153</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.0788690476190483</c:v>
+                  <c:v>5.6517857142857153</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0788690476190483</c:v>
+                  <c:v>5.6517857142857153</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.0788690476190483</c:v>
+                  <c:v>5.6517857142857153</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.0788690476190483</c:v>
+                  <c:v>5.6517857142857153</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.0788690476190483</c:v>
+                  <c:v>5.6517857142857153</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.0788690476190483</c:v>
+                  <c:v>5.6517857142857153</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.0788690476190483</c:v>
+                  <c:v>5.6517857142857153</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.9747023809523814</c:v>
+                  <c:v>5.5684523809523823</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.9747023809523814</c:v>
+                  <c:v>5.5684523809523823</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.7872023809523814</c:v>
+                  <c:v>5.5267857142857153</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.6726190476190483</c:v>
+                  <c:v>5.2663690476190483</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.9365079365079376</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.7594246031746046</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.7316468253968269</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.3149801587301599</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.085813492063493</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.929563492063493</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7385912698412707</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.7385912698412707</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8316,6 +8340,11 @@
             <v>4.1666666666666664E-2</v>
           </cell>
         </row>
+        <row r="17">
+          <cell r="C17">
+            <v>8.3333333333333329E-2</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="4">
@@ -8445,21 +8474,46 @@
         </row>
         <row r="29">
           <cell r="C29">
-            <v>2.0833333333333332E-2</v>
+            <v>1.0416666666666666E-2</v>
           </cell>
         </row>
         <row r="30">
           <cell r="C30">
-            <v>4.1666666666666664E-2</v>
+            <v>2.0833333333333332E-2</v>
           </cell>
         </row>
         <row r="31">
           <cell r="C31">
-            <v>0.1875</v>
+            <v>4.1666666666666664E-2</v>
           </cell>
         </row>
         <row r="32">
           <cell r="C32">
+            <v>0.1875</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>1.0416666666666666E-2</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>8.3333333333333329E-2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>6.9444444444444441E-3</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>2.0833333333333332E-2</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
             <v>4.1666666666666664E-2</v>
           </cell>
         </row>
@@ -8550,6 +8604,41 @@
             <v>5.2083333333333336E-2</v>
           </cell>
         </row>
+        <row r="23">
+          <cell r="C23">
+            <v>8.3333333333333329E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>6.9444444444444441E-3</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>8.3333333333333329E-2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>2.0833333333333332E-2</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>3.125E-2</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>8.3333333333333329E-2</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>2.0833333333333332E-2</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="4">
@@ -8762,6 +8851,26 @@
             <v>2.0833333333333332E-2</v>
           </cell>
         </row>
+        <row r="49">
+          <cell r="C49">
+            <v>6.25E-2</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>8.3333333333333329E-2</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>8.3333333333333329E-2</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>3.472222222222222E-3</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="4">
@@ -8827,6 +8936,41 @@
         <row r="16">
           <cell r="C16">
             <v>2.0833333333333332E-2</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>6.25E-2</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>3.125E-2</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>2.0833333333333332E-2</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>2.0833333333333332E-2</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>6.25E-2</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>0.16666666666666666</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>6.25E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -9134,9 +9278,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E944A8AF-E90A-674F-82B5-AF6B2FDA755D}">
   <dimension ref="B1:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9173,8 +9317,8 @@
         <v>5.5238095238095237</v>
       </c>
       <c r="D3" s="6">
-        <f>C3-([1]Commun!$C$4+[1]Commun!$C$5+[1]!Tableau4[[#This Row],[DURÉE]]+[1]!Tableau1[[#This Row],[DURÉE]]+[1]Coralie!$C$4+[1]!Tableau2[[#This Row],[DURÉE]])</f>
-        <v>5.464781746031746</v>
+        <f>C3-([1]Commun!$C$4*4+[1]Commun!$C$5*4+[1]!Tableau4[[#This Row],[DURÉE]]+[1]!Tableau1[[#This Row],[DURÉE]]+[1]Coralie!$C$4+[1]!Tableau2[[#This Row],[DURÉE]])</f>
+        <v>5.339781746031746</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
@@ -9187,7 +9331,7 @@
       </c>
       <c r="D4" s="6">
         <f>D3-([1]!Tableau3[[#This Row],[DURÉE]])</f>
-        <v>5.4578373015873014</v>
+        <v>5.3328373015873014</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
@@ -9200,7 +9344,7 @@
       </c>
       <c r="D5" s="6">
         <f>D4-([1]!Tableau1[[#This Row],[DURÉE]]+[1]!Tableau3[[#This Row],[DURÉE]])</f>
-        <v>5.4474206349206344</v>
+        <v>5.3224206349206344</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
@@ -9213,7 +9357,7 @@
       </c>
       <c r="D6" s="6">
         <f>D5-([1]Angela!$C$4)</f>
-        <v>5.3953373015873014</v>
+        <v>5.2703373015873014</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
@@ -9226,7 +9370,7 @@
       </c>
       <c r="D7" s="6">
         <f>D6-([1]Constantin!$C$5+[1]Aurélie!$C$6+[1]Angela!$C$5)</f>
-        <v>5.3120039682539684</v>
+        <v>5.1870039682539684</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
@@ -9239,7 +9383,7 @@
       </c>
       <c r="D8" s="6">
         <f>D7-([1]Angela!$C$6)</f>
-        <v>5.3050595238095237</v>
+        <v>5.1800595238095237</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
@@ -9252,7 +9396,7 @@
       </c>
       <c r="D9" s="6">
         <f>D8-([1]Coralie!$C$6+[1]Coralie!$C$7+[1]Aurélie!$C$7)</f>
-        <v>5.1349206349206344</v>
+        <v>5.0099206349206344</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
@@ -9265,7 +9409,7 @@
       </c>
       <c r="D10" s="6">
         <f>D9-([1]Coralie!$C$8+[1]Angela!$C$7)</f>
-        <v>5.0515873015873014</v>
+        <v>4.9265873015873014</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
@@ -9278,7 +9422,7 @@
       </c>
       <c r="D11" s="6">
         <f>D10-([1]Coralie!$C$9+[1]Coralie!$C$10+[1]!Tableau1[[#This Row],[DURÉE]]+[1]Angela!$C$8)</f>
-        <v>4.9265873015873014</v>
+        <v>4.8015873015873014</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -9290,8 +9434,8 @@
         <v>3.8095238095238075</v>
       </c>
       <c r="D12" s="6">
-        <f>D11-([1]Constantin!$C$6+[1]Aurélie!$C$8+[1]Angela!$C$9+[1]Commun!$C$6)</f>
-        <v>4.7113095238095237</v>
+        <f>D11-([1]Constantin!$C$6+[1]Aurélie!$C$8+[1]Angela!$C$9+[1]Commun!$C$6*4)</f>
+        <v>4.4613095238095237</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
@@ -9304,7 +9448,7 @@
       </c>
       <c r="D13" s="6">
         <f>D12</f>
-        <v>4.7113095238095237</v>
+        <v>4.4613095238095237</v>
       </c>
       <c r="E13" t="s">
         <v>3</v>
@@ -9319,8 +9463,8 @@
         <v>3.4285714285714262</v>
       </c>
       <c r="D14" s="6">
-        <f>D13-([1]Commun!$C$7+[1]Commun!$C$8+[1]Coralie!$C$12)</f>
-        <v>4.6453373015873014</v>
+        <f>D13-([1]Commun!$C$7*4+[1]Commun!$C$8*4+[1]Coralie!$C$12)</f>
+        <v>4.2599206349206344</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
@@ -9333,7 +9477,7 @@
       </c>
       <c r="D15" s="6">
         <f>D14</f>
-        <v>4.6453373015873014</v>
+        <v>4.2599206349206344</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
@@ -9346,7 +9490,7 @@
       </c>
       <c r="D16" s="6">
         <f>D15-([1]Aurélie!$C$9+[1]Aurélie!$C$10+[1]Aurélie!$C$11+[1]Coralie!$C$13+[1]Coralie!$C$14+[1]Coralie!$C$15)</f>
-        <v>4.5168650793650791</v>
+        <v>4.1314484126984121</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
@@ -9359,7 +9503,7 @@
       </c>
       <c r="D17" s="6">
         <f>D16</f>
-        <v>4.5168650793650791</v>
+        <v>4.1314484126984121</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
@@ -9372,7 +9516,7 @@
       </c>
       <c r="D18" s="6">
         <f>D17</f>
-        <v>4.5168650793650791</v>
+        <v>4.1314484126984121</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
@@ -9385,7 +9529,7 @@
       </c>
       <c r="D19" s="6">
         <f>D18</f>
-        <v>4.5168650793650791</v>
+        <v>4.1314484126984121</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
@@ -9398,7 +9542,7 @@
       </c>
       <c r="D20" s="6">
         <f>D19</f>
-        <v>4.5168650793650791</v>
+        <v>4.1314484126984121</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
@@ -9410,8 +9554,8 @@
         <v>2.0952380952380913</v>
       </c>
       <c r="D21" s="6">
-        <f>D20-([1]Commun!$C$9+[1]Aurélie!$C$12+[1]Coralie!$C$16+[1]Coralie!$C$17+[1]Coralie!$C$18+[1]Constantin!$C$7)</f>
-        <v>4.4474206349206344</v>
+        <f>D20-([1]Commun!$C$9*4+[1]Aurélie!$C$12+[1]Coralie!$C$16+[1]Coralie!$C$17+[1]Coralie!$C$18+[1]Constantin!$C$7)</f>
+        <v>3.9786706349206344</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
@@ -9424,7 +9568,7 @@
       </c>
       <c r="D22" s="6">
         <f>D21</f>
-        <v>4.4474206349206344</v>
+        <v>3.9786706349206344</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
@@ -9437,7 +9581,7 @@
       </c>
       <c r="D23" s="6">
         <f>D22-([1]Angela!$C$10+[1]Aurélie!$C$13+[1]Aurélie!$C$14+[1]Aurélie!$C$15+[1]Constantin!$C$8)</f>
-        <v>4.2217261904761898</v>
+        <v>3.7529761904761898</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
@@ -9449,8 +9593,8 @@
         <v>1.52380952380952</v>
       </c>
       <c r="D24" s="6">
-        <f>D23-([1]Commun!$C$10+[1]Angela!$C$11+[1]Angela!$C$12+[1]Coralie!$C$19+[1]Coralie!$C$20)</f>
-        <v>4.0446428571428568</v>
+        <f>D23-([1]Commun!$C$10*4+[1]Angela!$C$11+[1]Angela!$C$12+[1]Coralie!$C$19+[1]Coralie!$C$20)</f>
+        <v>3.3258928571428568</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
@@ -9463,7 +9607,7 @@
       </c>
       <c r="D25" s="6">
         <f>D24</f>
-        <v>4.0446428571428568</v>
+        <v>3.3258928571428568</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
@@ -9476,7 +9620,7 @@
       </c>
       <c r="D26" s="6">
         <f>D25-([1]Angela!$C$13+[1]Angela!$C$14+[1]Angela!$C$15)</f>
-        <v>3.9821428571428568</v>
+        <v>3.2633928571428568</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
@@ -9488,8 +9632,8 @@
         <v>0.95238095238094855</v>
       </c>
       <c r="D27" s="6">
-        <f>D26-([1]Commun!$C$11+[1]Aurélie!$C$16+[1]Coralie!$C$21+[1]Coralie!$C$22+[1]Coralie!$C$23+[1]Coralie!$C$24)</f>
-        <v>3.7911706349206344</v>
+        <f>D26-([1]Commun!$C$11*4+[1]Aurélie!$C$16+[1]Coralie!$C$21+[1]Coralie!$C$22+[1]Coralie!$C$23+[1]Coralie!$C$24)</f>
+        <v>2.9474206349206344</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
@@ -9502,7 +9646,7 @@
       </c>
       <c r="D28" s="6">
         <f>D27-([1]Angela!$C$16+[1]Angela!$C$17+[1]Coralie!$C$25)</f>
-        <v>3.6071428571428568</v>
+        <v>2.7633928571428568</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
@@ -9515,7 +9659,7 @@
       </c>
       <c r="D29" s="6">
         <f>D28-([1]Angela!$C$18+[1]Coralie!$C$26+[1]Coralie!$C$27+[1]Coralie!$C$28+[1]!Tableau1[[#This Row],[DURÉE]]+[1]Coralie!$C$30+[1]Constantin!$C$9)</f>
-        <v>3.3085317460317456</v>
+        <v>2.4647817460317456</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
@@ -9528,7 +9672,7 @@
       </c>
       <c r="D30" s="6">
         <f>D29-([1]Coralie!$C$31+[1]Coralie!$C$32)</f>
-        <v>3.2807539682539679</v>
+        <v>2.4370039682539679</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
@@ -9540,8 +9684,8 @@
         <v>0.19047619047618669</v>
       </c>
       <c r="D31" s="6">
-        <f>D30-([1]Commun!$C$12+[1]Angela!$C$19+[1]Coralie!$C$33)</f>
-        <v>3.1939484126984126</v>
+        <f>D30-([1]Commun!$C$12*4+[1]Angela!$C$19+[1]Coralie!$C$33)</f>
+        <v>2.2251984126984126</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
@@ -9553,8 +9697,8 @@
         <v>-3.7747582837255322E-15</v>
       </c>
       <c r="D32" s="6">
-        <f>D31-([1]Commun!$C$13+[1]Constantin!$C$10)</f>
-        <v>3.1106150793650791</v>
+        <f>D31-([1]Commun!$C$13*4+[1]Constantin!$C$10)</f>
+        <v>2.0168650793650791</v>
       </c>
     </row>
   </sheetData>
@@ -9568,7 +9712,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CF9308-6F9B-4045-AEDD-F0743ADE84FF}">
   <dimension ref="B1:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3:C4"/>
     </sheetView>
@@ -9766,7 +9910,7 @@
         <v>0.80952380952380887</v>
       </c>
       <c r="D15" s="6">
-        <f>D14</f>
+        <f t="shared" ref="D15:D20" si="1">D14</f>
         <v>1.0684523809523809</v>
       </c>
     </row>
@@ -9779,7 +9923,7 @@
         <v>0.7619047619047612</v>
       </c>
       <c r="D16" s="6">
-        <f>D15</f>
+        <f t="shared" si="1"/>
         <v>1.0684523809523809</v>
       </c>
     </row>
@@ -9792,7 +9936,7 @@
         <v>0.71428571428571352</v>
       </c>
       <c r="D17" s="6">
-        <f>D16</f>
+        <f t="shared" si="1"/>
         <v>1.0684523809523809</v>
       </c>
     </row>
@@ -9805,7 +9949,7 @@
         <v>0.66666666666666585</v>
       </c>
       <c r="D18" s="6">
-        <f>D17</f>
+        <f t="shared" si="1"/>
         <v>1.0684523809523809</v>
       </c>
     </row>
@@ -9818,7 +9962,7 @@
         <v>0.61904761904761818</v>
       </c>
       <c r="D19" s="6">
-        <f>D18</f>
+        <f t="shared" si="1"/>
         <v>1.0684523809523809</v>
       </c>
     </row>
@@ -9831,7 +9975,7 @@
         <v>0.57142857142857051</v>
       </c>
       <c r="D20" s="6">
-        <f>D19</f>
+        <f t="shared" si="1"/>
         <v>1.0684523809523809</v>
       </c>
     </row>
@@ -10002,7 +10146,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260ACEC8-6D1A-CB4E-B288-FC5123DB54E7}">
   <dimension ref="B1:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3:C32"/>
     </sheetView>
@@ -10436,8 +10580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96421919-AD2A-D749-A669-506A039EBD4B}">
   <dimension ref="B1:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C3" sqref="C3:C32"/>
     </sheetView>
   </sheetViews>
@@ -10870,7 +11014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADB3C67-CBB4-A646-8CFB-4E9D29F5BD23}">
   <dimension ref="B1:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
     </sheetView>
@@ -11068,7 +11212,7 @@
         <v>0.80952380952380887</v>
       </c>
       <c r="D15" s="6">
-        <f>D14</f>
+        <f t="shared" ref="D15:D20" si="2">D14</f>
         <v>1.1226190476190476</v>
       </c>
     </row>
@@ -11081,7 +11225,7 @@
         <v>0.7619047619047612</v>
       </c>
       <c r="D16" s="6">
-        <f>D15</f>
+        <f t="shared" si="2"/>
         <v>1.1226190476190476</v>
       </c>
     </row>
@@ -11094,7 +11238,7 @@
         <v>0.71428571428571352</v>
       </c>
       <c r="D17" s="6">
-        <f>D16</f>
+        <f t="shared" si="2"/>
         <v>1.1226190476190476</v>
       </c>
     </row>
@@ -11107,7 +11251,7 @@
         <v>0.66666666666666585</v>
       </c>
       <c r="D18" s="6">
-        <f>D17</f>
+        <f t="shared" si="2"/>
         <v>1.1226190476190476</v>
       </c>
     </row>
@@ -11120,7 +11264,7 @@
         <v>0.61904761904761818</v>
       </c>
       <c r="D19" s="6">
-        <f>D18</f>
+        <f t="shared" si="2"/>
         <v>1.1226190476190476</v>
       </c>
     </row>
@@ -11133,7 +11277,7 @@
         <v>0.57142857142857051</v>
       </c>
       <c r="D20" s="6">
-        <f>D19</f>
+        <f t="shared" si="2"/>
         <v>1.1226190476190476</v>
       </c>
     </row>
@@ -11304,9 +11448,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F751D1-D530-4D4B-B04B-5D0F9CEA0F75}">
   <dimension ref="B1:F40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11383,7 +11527,7 @@
         <v>6.4761904761904754</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" ref="D5:D40" si="1">D5</f>
+        <f t="shared" ref="D6:D30" si="1">D5</f>
         <v>7.0163690476190474</v>
       </c>
     </row>
@@ -11555,8 +11699,8 @@
         <v>3.9999999999999964</v>
       </c>
       <c r="D19" s="6">
-        <f>D18-([1]Commun!$C$14+[1]Commun!$C$15+[1]Aurélie!$C$19+[1]Aurélie!$C$20)</f>
-        <v>6.2073412698412707</v>
+        <f>D18-([1]Commun!$C$14*4+[1]Commun!$C$15*4+[1]Aurélie!$C$19+[1]Aurélie!$C$20)</f>
+        <v>5.8948412698412707</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
@@ -11569,7 +11713,7 @@
       </c>
       <c r="D20" s="6">
         <f>D19-([1]Angela!$C$29+[1]Coralie!$C$44+[1]Coralie!$C$45+[1]Constantin!$C$15)</f>
-        <v>6.1413690476190483</v>
+        <v>5.8392857142857153</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
@@ -11582,7 +11726,7 @@
       </c>
       <c r="D21" s="6">
         <f t="shared" si="1"/>
-        <v>6.1413690476190483</v>
+        <v>5.8392857142857153</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
@@ -11594,8 +11738,8 @@
         <v>3.4285714285714244</v>
       </c>
       <c r="D22" s="6">
-        <f>D21-([1]Commun!$C$16+[1]Constantin!$C$16)</f>
-        <v>6.0788690476190483</v>
+        <f>D21-([1]Commun!$C$16*4+[1]Constantin!$C$16)</f>
+        <v>5.6517857142857153</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
@@ -11608,7 +11752,7 @@
       </c>
       <c r="D23" s="6">
         <f t="shared" si="1"/>
-        <v>6.0788690476190483</v>
+        <v>5.6517857142857153</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
@@ -11621,7 +11765,7 @@
       </c>
       <c r="D24" s="6">
         <f t="shared" si="1"/>
-        <v>6.0788690476190483</v>
+        <v>5.6517857142857153</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
@@ -11634,7 +11778,7 @@
       </c>
       <c r="D25" s="6">
         <f t="shared" si="1"/>
-        <v>6.0788690476190483</v>
+        <v>5.6517857142857153</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
@@ -11647,7 +11791,7 @@
       </c>
       <c r="D26" s="6">
         <f t="shared" si="1"/>
-        <v>6.0788690476190483</v>
+        <v>5.6517857142857153</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
@@ -11660,7 +11804,7 @@
       </c>
       <c r="D27" s="6">
         <f t="shared" si="1"/>
-        <v>6.0788690476190483</v>
+        <v>5.6517857142857153</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
@@ -11673,7 +11817,7 @@
       </c>
       <c r="D28" s="6">
         <f t="shared" si="1"/>
-        <v>6.0788690476190483</v>
+        <v>5.6517857142857153</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
@@ -11686,7 +11830,7 @@
       </c>
       <c r="D29" s="6">
         <f>D28-([1]Angela!$C$30+[1]Aurélie!$C$21+[1]Coralie!$C$46+[1]Coralie!$C$47)</f>
-        <v>5.9747023809523814</v>
+        <v>5.5684523809523823</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
@@ -11699,7 +11843,7 @@
       </c>
       <c r="D30" s="6">
         <f t="shared" si="1"/>
-        <v>5.9747023809523814</v>
+        <v>5.5684523809523823</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
@@ -11712,7 +11856,7 @@
       </c>
       <c r="D31" s="6">
         <f>D30-([1]Angela!$C$31)</f>
-        <v>5.7872023809523814</v>
+        <v>5.5267857142857153</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
@@ -11725,7 +11869,7 @@
       </c>
       <c r="D32" s="6">
         <f>D31-([1]Angela!$C$32+[1]Aurélie!$C$22+[1]Coralie!$C$48)</f>
-        <v>5.6726190476190483</v>
+        <v>5.2663690476190483</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
@@ -11736,7 +11880,10 @@
         <f t="shared" si="0"/>
         <v>1.3333333333333277</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" s="6">
+        <f>D32-([1]Angela!$C$34+[1]Angela!$C$35+[1]Aurélie!$C$23+[1]Aurélie!$C$24+[1]Aurélie!$C$25+[1]Coralie!$C$49)</f>
+        <v>4.9365079365079376</v>
+      </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B34" s="5">
@@ -11746,7 +11893,10 @@
         <f t="shared" si="0"/>
         <v>1.1428571428571372</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" s="6">
+        <f>D33-([1]Coralie!$C$50+[1]Constantin!$C$17+[1]Constantin!$C$18)</f>
+        <v>4.7594246031746046</v>
+      </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="5">
@@ -11756,7 +11906,10 @@
         <f t="shared" si="0"/>
         <v>0.95238095238094678</v>
       </c>
-      <c r="D35" s="6"/>
+      <c r="D35" s="6">
+        <f>D34-([1]Angela!$C$36+[1]Constantin!$C$19)</f>
+        <v>4.7316468253968269</v>
+      </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="5">
@@ -11766,7 +11919,10 @@
         <f t="shared" si="0"/>
         <v>0.76190476190475631</v>
       </c>
-      <c r="D36" s="6"/>
+      <c r="D36" s="6">
+        <f>D35-([1]Commun!$C$17*4+[1]Constantin!$C$20+[1]Constantin!$C$21)</f>
+        <v>4.3149801587301599</v>
+      </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="5">
@@ -11776,7 +11932,10 @@
         <f t="shared" si="0"/>
         <v>0.57142857142856585</v>
       </c>
-      <c r="D37" s="6"/>
+      <c r="D37" s="6">
+        <f>D36-([1]Constantin!$C$22+[1]Constantin!$C$23)</f>
+        <v>4.085813492063493</v>
+      </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B38" s="5">
@@ -11786,7 +11945,10 @@
         <f t="shared" si="0"/>
         <v>0.38095238095237538</v>
       </c>
-      <c r="D38" s="6"/>
+      <c r="D38" s="6">
+        <f>D37-([1]Angela!$C$37+[1]Aurélie!$C$26+[1]Aurélie!$C$27+[1]Coralie!$C$51)</f>
+        <v>3.929563492063493</v>
+      </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="5">
@@ -11796,7 +11958,10 @@
         <f t="shared" si="0"/>
         <v>0.19047619047618491</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="6">
+        <f>D38-([1]Angela!$C$38+[1]!Tableau4[[#This Row],[DURÉE]]+[1]Aurélie!$C$28+[1]Aurélie!$C$29+[1]Coralie!$C$52)</f>
+        <v>3.7385912698412707</v>
+      </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="5">
@@ -11806,7 +11971,10 @@
         <f t="shared" si="0"/>
         <v>-5.5511151231257827E-15</v>
       </c>
-      <c r="D40" s="6"/>
+      <c r="D40" s="6">
+        <f t="shared" ref="D34:D40" si="2">D39</f>
+        <v>3.7385912698412707</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Scrum/BurnDown_chart.xlsx
+++ b/Documents/Scrum/BurnDown_chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A0E50D-1C7A-064D-9B94-C68BEFDE79BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B17DEF-ED39-F94E-95C3-A69D00C4A26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11080" yWindow="0" windowWidth="17720" windowHeight="18000" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 - Commun" sheetId="5" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sprint 1 - Aurelie" sheetId="8" r:id="rId3"/>
     <sheet name="Sprint 1 - Coralie" sheetId="9" r:id="rId4"/>
     <sheet name="Sprint 1 - Constantin" sheetId="10" r:id="rId5"/>
-    <sheet name="Sprint 2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint 2 - Commun" sheetId="6" r:id="rId6"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId7"/>
@@ -59,7 +59,7 @@
     <t>Courbe Réelle</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Pourcentage</t>
   </si>
 </sst>
 </file>
@@ -70,7 +70,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,6 +82,28 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,10 +141,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -144,9 +167,31 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -3923,7 +3968,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 2'!$C$1</c:f>
+              <c:f>'Sprint 2 - Commun'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3946,7 +3991,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 2'!$B$2:$B$40</c:f>
+              <c:f>'Sprint 2 - Commun'!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="39"/>
@@ -4069,7 +4114,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2'!$C$2:$C$40</c:f>
+              <c:f>'Sprint 2 - Commun'!$C$2:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="39"/>
@@ -4202,7 +4247,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sprint 2'!$D$1</c:f>
+              <c:f>'Sprint 2 - Commun'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4225,7 +4270,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>'Sprint 2'!$B$2:$B$40</c:f>
+              <c:f>'Sprint 2 - Commun'!$B$2:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="39"/>
@@ -4348,7 +4393,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2'!$D$2:$D$40</c:f>
+              <c:f>'Sprint 2 - Commun'!$D$2:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="39"/>
@@ -8011,16 +8056,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152406</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>101606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8052,16 +8097,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152406</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>825500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8095,16 +8140,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314511</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>152406</xdr:rowOff>
+      <xdr:rowOff>167348</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180041</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>205442</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8138,16 +8183,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>152406</xdr:rowOff>
+      <xdr:rowOff>50806</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8181,16 +8226,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152406</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>448982</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>92642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>314512</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>130735</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8224,16 +8269,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>152406</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>583453</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>47818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>673100</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>448983</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>85911</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8272,6 +8317,7 @@
       <sheetName val="Aurélie"/>
       <sheetName val="Coralie"/>
       <sheetName val="Constantin"/>
+      <sheetName val="0_Journal_de_bord"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -8629,11 +8675,6 @@
             <v>3.125E-2</v>
           </cell>
         </row>
-        <row r="28">
-          <cell r="C28">
-            <v>8.3333333333333329E-2</v>
-          </cell>
-        </row>
         <row r="29">
           <cell r="C29">
             <v>2.0833333333333332E-2</v>
@@ -8756,11 +8797,6 @@
             <v>5.2083333333333336E-2</v>
           </cell>
         </row>
-        <row r="30">
-          <cell r="C30">
-            <v>3.125E-2</v>
-          </cell>
-        </row>
         <row r="31">
           <cell r="C31">
             <v>1.7361111111111112E-2</v>
@@ -8974,6 +9010,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -9278,14 +9315,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E944A8AF-E90A-674F-82B5-AF6B2FDA755D}">
   <dimension ref="B1:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="G1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="16.5" customWidth="1"/>
+    <col min="2" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -9298,6 +9336,9 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -9306,6 +9347,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -9320,6 +9362,10 @@
         <f>C3-([1]Commun!$C$4*4+[1]Commun!$C$5*4+[1]!Tableau4[[#This Row],[DURÉE]]+[1]!Tableau1[[#This Row],[DURÉE]]+[1]Coralie!$C$4+[1]!Tableau2[[#This Row],[DURÉE]])</f>
         <v>5.339781746031746</v>
       </c>
+      <c r="E3" s="7">
+        <f>D3/$C$3</f>
+        <v>0.96668462643678166</v>
+      </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
@@ -9333,6 +9379,10 @@
         <f>D3-([1]!Tableau3[[#This Row],[DURÉE]])</f>
         <v>5.3328373015873014</v>
       </c>
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:E32" si="1">D4/$C$3</f>
+        <v>0.96542744252873558</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
@@ -9346,6 +9396,10 @@
         <f>D4-([1]!Tableau1[[#This Row],[DURÉE]]+[1]!Tableau3[[#This Row],[DURÉE]])</f>
         <v>5.3224206349206344</v>
       </c>
+      <c r="E5" s="7">
+        <f t="shared" si="1"/>
+        <v>0.96354166666666663</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
@@ -9359,6 +9413,10 @@
         <f>D5-([1]Angela!$C$4)</f>
         <v>5.2703373015873014</v>
       </c>
+      <c r="E6" s="7">
+        <f t="shared" si="1"/>
+        <v>0.95411278735632177</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
@@ -9372,6 +9430,10 @@
         <f>D6-([1]Constantin!$C$5+[1]Aurélie!$C$6+[1]Angela!$C$5)</f>
         <v>5.1870039682539684</v>
       </c>
+      <c r="E7" s="7">
+        <f t="shared" si="1"/>
+        <v>0.93902658045977017</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
@@ -9385,6 +9447,10 @@
         <f>D7-([1]Angela!$C$6)</f>
         <v>5.1800595238095237</v>
       </c>
+      <c r="E8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.93776939655172409</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
@@ -9398,6 +9464,10 @@
         <f>D8-([1]Coralie!$C$6+[1]Coralie!$C$7+[1]Aurélie!$C$7)</f>
         <v>5.0099206349206344</v>
       </c>
+      <c r="E9" s="7">
+        <f t="shared" si="1"/>
+        <v>0.90696839080459768</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
@@ -9411,6 +9481,10 @@
         <f>D9-([1]Coralie!$C$8+[1]Angela!$C$7)</f>
         <v>4.9265873015873014</v>
       </c>
+      <c r="E10" s="7">
+        <f t="shared" si="1"/>
+        <v>0.89188218390804597</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
@@ -9424,6 +9498,10 @@
         <f>D10-([1]Coralie!$C$9+[1]Coralie!$C$10+[1]!Tableau1[[#This Row],[DURÉE]]+[1]Angela!$C$8)</f>
         <v>4.8015873015873014</v>
       </c>
+      <c r="E11" s="7">
+        <f t="shared" si="1"/>
+        <v>0.86925287356321834</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
@@ -9437,6 +9515,10 @@
         <f>D11-([1]Constantin!$C$6+[1]Aurélie!$C$8+[1]Angela!$C$9+[1]Commun!$C$6*4)</f>
         <v>4.4613095238095237</v>
       </c>
+      <c r="E12" s="7">
+        <f t="shared" si="1"/>
+        <v>0.80765086206896552</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
@@ -9450,8 +9532,9 @@
         <f>D12</f>
         <v>4.4613095238095237</v>
       </c>
-      <c r="E13" t="s">
-        <v>3</v>
+      <c r="E13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.80765086206896552</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
@@ -9466,6 +9549,10 @@
         <f>D13-([1]Commun!$C$7*4+[1]Commun!$C$8*4+[1]Coralie!$C$12)</f>
         <v>4.2599206349206344</v>
       </c>
+      <c r="E14" s="7">
+        <f t="shared" si="1"/>
+        <v>0.77119252873563215</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
@@ -9479,6 +9566,10 @@
         <f>D14</f>
         <v>4.2599206349206344</v>
       </c>
+      <c r="E15" s="7">
+        <f t="shared" si="1"/>
+        <v>0.77119252873563215</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
@@ -9492,8 +9583,12 @@
         <f>D15-([1]Aurélie!$C$9+[1]Aurélie!$C$10+[1]Aurélie!$C$11+[1]Coralie!$C$13+[1]Coralie!$C$14+[1]Coralie!$C$15)</f>
         <v>4.1314484126984121</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.74793462643678155</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <v>44473</v>
       </c>
@@ -9505,8 +9600,12 @@
         <f>D16</f>
         <v>4.1314484126984121</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="7">
+        <f t="shared" si="1"/>
+        <v>0.74793462643678155</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
         <v>44474</v>
       </c>
@@ -9518,8 +9617,12 @@
         <f>D17</f>
         <v>4.1314484126984121</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="7">
+        <f t="shared" si="1"/>
+        <v>0.74793462643678155</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
         <v>44475</v>
       </c>
@@ -9531,8 +9634,12 @@
         <f>D18</f>
         <v>4.1314484126984121</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="7">
+        <f t="shared" si="1"/>
+        <v>0.74793462643678155</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
         <v>44476</v>
       </c>
@@ -9544,8 +9651,12 @@
         <f>D19</f>
         <v>4.1314484126984121</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="7">
+        <f t="shared" si="1"/>
+        <v>0.74793462643678155</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="5">
         <v>44477</v>
       </c>
@@ -9557,8 +9668,12 @@
         <f>D20-([1]Commun!$C$9*4+[1]Aurélie!$C$12+[1]Coralie!$C$16+[1]Coralie!$C$17+[1]Coralie!$C$18+[1]Constantin!$C$7)</f>
         <v>3.9786706349206344</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="7">
+        <f t="shared" si="1"/>
+        <v>0.72027658045977005</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
         <v>44478</v>
       </c>
@@ -9570,8 +9685,12 @@
         <f>D21</f>
         <v>3.9786706349206344</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="7">
+        <f t="shared" si="1"/>
+        <v>0.72027658045977005</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
         <v>44479</v>
       </c>
@@ -9583,8 +9702,12 @@
         <f>D22-([1]Angela!$C$10+[1]Aurélie!$C$13+[1]Aurélie!$C$14+[1]Aurélie!$C$15+[1]Constantin!$C$8)</f>
         <v>3.7529761904761898</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="7">
+        <f t="shared" si="1"/>
+        <v>0.6794181034482758</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="5">
         <v>44480</v>
       </c>
@@ -9596,8 +9719,12 @@
         <f>D23-([1]Commun!$C$10*4+[1]Angela!$C$11+[1]Angela!$C$12+[1]Coralie!$C$19+[1]Coralie!$C$20)</f>
         <v>3.3258928571428568</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="7">
+        <f t="shared" si="1"/>
+        <v>0.60210129310344818</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="5">
         <v>44481</v>
       </c>
@@ -9609,8 +9736,12 @@
         <f>D24</f>
         <v>3.3258928571428568</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="7">
+        <f t="shared" si="1"/>
+        <v>0.60210129310344818</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="5">
         <v>44482</v>
       </c>
@@ -9622,8 +9753,12 @@
         <f>D25-([1]Angela!$C$13+[1]Angela!$C$14+[1]Angela!$C$15)</f>
         <v>3.2633928571428568</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="7">
+        <f t="shared" si="1"/>
+        <v>0.59078663793103448</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="5">
         <v>44483</v>
       </c>
@@ -9635,8 +9770,12 @@
         <f>D26-([1]Commun!$C$11*4+[1]Aurélie!$C$16+[1]Coralie!$C$21+[1]Coralie!$C$22+[1]Coralie!$C$23+[1]Coralie!$C$24)</f>
         <v>2.9474206349206344</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="7">
+        <f t="shared" si="1"/>
+        <v>0.53358477011494243</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="5">
         <v>44484</v>
       </c>
@@ -9648,8 +9787,12 @@
         <f>D27-([1]Angela!$C$16+[1]Angela!$C$17+[1]Coralie!$C$25)</f>
         <v>2.7633928571428568</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="7">
+        <f t="shared" si="1"/>
+        <v>0.50026939655172409</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="5">
         <v>44485</v>
       </c>
@@ -9661,8 +9804,12 @@
         <f>D28-([1]Angela!$C$18+[1]Coralie!$C$26+[1]Coralie!$C$27+[1]Coralie!$C$28+[1]!Tableau1[[#This Row],[DURÉE]]+[1]Coralie!$C$30+[1]Constantin!$C$9)</f>
         <v>2.4647817460317456</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="7">
+        <f t="shared" si="1"/>
+        <v>0.44621048850574707</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="5">
         <v>44486</v>
       </c>
@@ -9674,8 +9821,12 @@
         <f>D29-([1]Coralie!$C$31+[1]Coralie!$C$32)</f>
         <v>2.4370039682539679</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="7">
+        <f t="shared" si="1"/>
+        <v>0.44118175287356315</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
         <v>44487</v>
       </c>
@@ -9687,8 +9838,12 @@
         <f>D30-([1]Commun!$C$12*4+[1]Angela!$C$19+[1]Coralie!$C$33)</f>
         <v>2.2251984126984126</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="7">
+        <f t="shared" si="1"/>
+        <v>0.40283764367816088</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
         <v>44488</v>
       </c>
@@ -9699,6 +9854,10 @@
       <c r="D32" s="6">
         <f>D31-([1]Commun!$C$13*4+[1]Constantin!$C$10)</f>
         <v>2.0168650793650791</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="1"/>
+        <v>0.36512212643678155</v>
       </c>
     </row>
   </sheetData>
@@ -9714,12 +9873,13 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C4"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="16.5" customWidth="1"/>
+    <col min="2" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="16.5" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.2">
@@ -9732,6 +9892,9 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -9740,6 +9903,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="E2" s="9"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -9754,6 +9918,10 @@
         <f>C3-([1]Commun!$C$4+[1]Commun!$C$5+[1]!Tableau4[[#This Row],[DURÉE]])</f>
         <v>1.3323412698412698</v>
       </c>
+      <c r="E3" s="7">
+        <f>D3/$C$3</f>
+        <v>0.9647988505747126</v>
+      </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
@@ -9767,125 +9935,162 @@
         <f>D3</f>
         <v>1.3323412698412698</v>
       </c>
+      <c r="E4" s="7">
+        <f t="shared" ref="E4:E32" si="0">D4/$C$3</f>
+        <v>0.9647988505747126</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>44461</v>
       </c>
       <c r="C5" s="6">
-        <f t="shared" ref="C5:C32" si="0">C4-(($F$1/7))</f>
+        <f t="shared" ref="C5:C32" si="1">C4-(($F$1/7))</f>
         <v>1.2857142857142856</v>
       </c>
       <c r="D5" s="6">
         <f>D4</f>
         <v>1.3323412698412698</v>
       </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.9647988505747126</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>44462</v>
       </c>
       <c r="C6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2380952380952379</v>
       </c>
       <c r="D6" s="6">
         <f>D5-([1]Angela!$C$4)</f>
         <v>1.2802579365079365</v>
       </c>
+      <c r="E6" s="7">
+        <f>D6/$C$3</f>
+        <v>0.92708333333333337</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>44463</v>
       </c>
       <c r="C7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1904761904761902</v>
       </c>
       <c r="D7" s="6">
         <f>D6-([1]Angela!$C$5)</f>
         <v>1.2524801587301588</v>
       </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.90696839080459779</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>44464</v>
       </c>
       <c r="C8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1428571428571426</v>
       </c>
       <c r="D8" s="6">
         <f>D7-([1]Angela!$C$6)</f>
         <v>1.2455357142857144</v>
       </c>
+      <c r="E8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.90193965517241392</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>44465</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0952380952380949</v>
       </c>
       <c r="D9" s="6">
         <f>D8</f>
         <v>1.2455357142857144</v>
       </c>
+      <c r="E9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.90193965517241392</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>44466</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0476190476190472</v>
       </c>
       <c r="D10" s="6">
         <f>D9-([1]Angela!$C$7)</f>
         <v>1.2038690476190477</v>
       </c>
+      <c r="E10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.87176724137931039</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>44467</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999956</v>
       </c>
       <c r="D11" s="6">
         <f>D10-([1]Angela!$C$8)</f>
         <v>1.1622023809523809</v>
       </c>
+      <c r="E11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.84159482758620685</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>44468</v>
       </c>
       <c r="C12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95238095238095188</v>
       </c>
       <c r="D12" s="6">
         <f>D11-([1]Angela!$C$9+[1]Commun!$C$6)</f>
         <v>1.1135912698412698</v>
       </c>
+      <c r="E12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.80639367816091945</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>44469</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.90476190476190421</v>
       </c>
       <c r="D13" s="6">
         <f>D12</f>
         <v>1.1135912698412698</v>
       </c>
-      <c r="E13" t="s">
-        <v>3</v>
+      <c r="E13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.80639367816091945</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
@@ -9893,25 +10098,33 @@
         <v>44470</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.85714285714285654</v>
       </c>
       <c r="D14" s="6">
         <f>D13-([1]Commun!$C$7+[1]Commun!$C$8)</f>
         <v>1.0684523809523809</v>
       </c>
+      <c r="E14" s="7">
+        <f t="shared" si="0"/>
+        <v>0.77370689655172409</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
         <v>44471</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80952380952380887</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" ref="D15:D20" si="1">D14</f>
+        <f t="shared" ref="D15:D20" si="2">D14</f>
         <v>1.0684523809523809</v>
+      </c>
+      <c r="E15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.77370689655172409</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
@@ -9919,220 +10132,288 @@
         <v>44472</v>
       </c>
       <c r="C16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.7619047619047612</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0684523809523809</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.77370689655172409</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <v>44473</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.71428571428571352</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0684523809523809</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="7">
+        <f t="shared" si="0"/>
+        <v>0.77370689655172409</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
         <v>44474</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66666666666666585</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0684523809523809</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="7">
+        <f t="shared" si="0"/>
+        <v>0.77370689655172409</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
         <v>44475</v>
       </c>
       <c r="C19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.61904761904761818</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0684523809523809</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.77370689655172409</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
         <v>44476</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57142857142857051</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0684523809523809</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="7">
+        <f t="shared" si="0"/>
+        <v>0.77370689655172409</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="5">
         <v>44477</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.52380952380952284</v>
       </c>
       <c r="D21" s="6">
         <f>D20-([1]Commun!$C$9)</f>
         <v>1.0406746031746033</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.75359195402298862</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
         <v>44478</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.47619047619047522</v>
       </c>
       <c r="D22" s="6">
         <f>D21</f>
         <v>1.0406746031746033</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="7">
+        <f t="shared" si="0"/>
+        <v>0.75359195402298862</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
         <v>44479</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4285714285714276</v>
       </c>
       <c r="D23" s="6">
         <f>D22-([1]Angela!$C$10)</f>
         <v>1.01984126984127</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="7">
+        <f t="shared" si="0"/>
+        <v>0.73850574712643691</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="5">
         <v>44480</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.38095238095237999</v>
       </c>
       <c r="D24" s="6">
         <f>D23-([1]Commun!$C$10+[1]Angela!$C$11+[1]Angela!$C$12)</f>
         <v>0.88442460317460336</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.64044540229885072</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="5">
         <v>44481</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33333333333333237</v>
       </c>
       <c r="D25" s="6">
         <f>D24</f>
         <v>0.88442460317460336</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="7">
+        <f t="shared" si="0"/>
+        <v>0.64044540229885072</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="5">
         <v>44482</v>
       </c>
       <c r="C26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28571428571428475</v>
       </c>
       <c r="D26" s="6">
         <f>D25-([1]Angela!$C$13+[1]Angela!$C$14+[1]Angela!$C$15)</f>
         <v>0.82192460317460336</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="7">
+        <f t="shared" si="0"/>
+        <v>0.59518678160919558</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="5">
         <v>44483</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23809523809523714</v>
       </c>
       <c r="D27" s="6">
         <f>D26-([1]Commun!$C$11)</f>
         <v>0.78025793650793673</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="7">
+        <f t="shared" si="0"/>
+        <v>0.56501436781609216</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="5">
         <v>44484</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19047619047618952</v>
       </c>
       <c r="D28" s="6">
         <f>D27-([1]Angela!$C$16+[1]Angela!$C$17)</f>
         <v>0.64831349206349231</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="7">
+        <f t="shared" si="0"/>
+        <v>0.4694683908045979</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="5">
         <v>44485</v>
       </c>
       <c r="C29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14285714285714191</v>
       </c>
       <c r="D29" s="6">
         <f>D28-([1]Angela!$C$18)</f>
         <v>0.54414682539682568</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="7">
+        <f t="shared" si="0"/>
+        <v>0.39403735632183928</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="5">
         <v>44486</v>
       </c>
       <c r="C30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5238095238094289E-2</v>
       </c>
       <c r="D30" s="6">
         <f>D29</f>
         <v>0.54414682539682568</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="7">
+        <f t="shared" si="0"/>
+        <v>0.39403735632183928</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
         <v>44487</v>
       </c>
       <c r="C31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7619047619046673E-2</v>
       </c>
       <c r="D31" s="6">
         <f>D30-([1]Commun!$C$12+[1]Angela!$C$19)</f>
         <v>0.4885912698412701</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="7">
+        <f t="shared" si="0"/>
+        <v>0.35380747126436801</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
         <v>44488</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.4368957093138306E-16</v>
       </c>
       <c r="D32" s="6">
         <f>D31-([1]Commun!$C$13)</f>
         <v>0.44692460317460342</v>
+      </c>
+      <c r="E32" s="7">
+        <f t="shared" si="0"/>
+        <v>0.32363505747126453</v>
       </c>
     </row>
   </sheetData>
@@ -10148,7 +10429,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C32"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10166,6 +10447,9 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -10174,6 +10458,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -10188,6 +10473,10 @@
         <f>C3-([1]Commun!$C$4+[1]Commun!$C$5)</f>
         <v>1.3392857142857142</v>
       </c>
+      <c r="E3" s="13">
+        <f>D3/$C$3</f>
+        <v>0.96982758620689646</v>
+      </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
@@ -10201,125 +10490,162 @@
         <f>D3-([1]!Tableau3[[#This Row],[DURÉE]])</f>
         <v>1.3323412698412698</v>
       </c>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E32" si="0">D4/$C$3</f>
+        <v>0.9647988505747126</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>44461</v>
       </c>
       <c r="C5" s="6">
-        <f t="shared" ref="C5:C32" si="0">C4-(($F$1/7))</f>
+        <f t="shared" ref="C5:C32" si="1">C4-(($F$1/7))</f>
         <v>1.2857142857142856</v>
       </c>
       <c r="D5" s="6">
         <f>D4-([1]!Tableau3[[#This Row],[DURÉE]])</f>
         <v>1.3253968253968254</v>
       </c>
+      <c r="E5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.95977011494252873</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>44462</v>
       </c>
       <c r="C6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2380952380952379</v>
       </c>
       <c r="D6" s="6">
         <f>D5</f>
         <v>1.3253968253968254</v>
       </c>
+      <c r="E6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.95977011494252873</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>44463</v>
       </c>
       <c r="C7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1904761904761902</v>
       </c>
       <c r="D7" s="6">
         <f>D6-([1]Aurélie!$C$6)</f>
         <v>1.3115079365079365</v>
       </c>
+      <c r="E7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.94971264367816088</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>44464</v>
       </c>
       <c r="C8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1428571428571426</v>
       </c>
       <c r="D8" s="6">
         <f>D7</f>
         <v>1.3115079365079365</v>
       </c>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.94971264367816088</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>44465</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0952380952380949</v>
       </c>
       <c r="D9" s="6">
         <f>D8-([1]Aurélie!$C$7)</f>
         <v>1.2698412698412698</v>
       </c>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.91954022988505746</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>44466</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0476190476190472</v>
       </c>
       <c r="D10" s="6">
         <f>D9</f>
         <v>1.2698412698412698</v>
       </c>
+      <c r="E10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.91954022988505746</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>44467</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999956</v>
       </c>
       <c r="D11" s="6">
         <f>D10</f>
         <v>1.2698412698412698</v>
       </c>
+      <c r="E11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.91954022988505746</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>44468</v>
       </c>
       <c r="C12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95238095238095188</v>
       </c>
       <c r="D12" s="6">
         <f>D11-([1]Aurélie!$C$8+[1]Commun!$C$6)</f>
         <v>1.1448412698412698</v>
       </c>
+      <c r="E12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.82902298850574707</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>44469</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.90476190476190421</v>
       </c>
       <c r="D13" s="6">
         <f>D12</f>
         <v>1.1448412698412698</v>
       </c>
-      <c r="E13" t="s">
-        <v>3</v>
+      <c r="E13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.82902298850574707</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
@@ -10327,246 +10653,322 @@
         <v>44470</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.85714285714285654</v>
       </c>
       <c r="D14" s="6">
         <f>D13-([1]Commun!$C$7+[1]Commun!$C$8)</f>
         <v>1.0997023809523809</v>
       </c>
+      <c r="E14" s="13">
+        <f t="shared" si="0"/>
+        <v>0.79633620689655171</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
         <v>44471</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80952380952380887</v>
       </c>
       <c r="D15" s="6">
         <f>D14</f>
         <v>1.0997023809523809</v>
       </c>
+      <c r="E15" s="13">
+        <f t="shared" si="0"/>
+        <v>0.79633620689655171</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
         <v>44472</v>
       </c>
       <c r="C16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.7619047619047612</v>
       </c>
       <c r="D16" s="6">
         <f>D15-([1]Aurélie!$C$9+[1]Aurélie!$C$10+[1]Aurélie!$C$11)</f>
         <v>1.0580357142857142</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="13">
+        <f t="shared" si="0"/>
+        <v>0.76616379310344818</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <v>44473</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.71428571428571352</v>
       </c>
       <c r="D17" s="6">
         <f>D16</f>
         <v>1.0580357142857142</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="13">
+        <f t="shared" si="0"/>
+        <v>0.76616379310344818</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
         <v>44474</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66666666666666585</v>
       </c>
       <c r="D18" s="6">
         <f>D17</f>
         <v>1.0580357142857142</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="13">
+        <f t="shared" si="0"/>
+        <v>0.76616379310344818</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
         <v>44475</v>
       </c>
       <c r="C19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.61904761904761818</v>
       </c>
       <c r="D19" s="6">
         <f>D18</f>
         <v>1.0580357142857142</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="13">
+        <f t="shared" si="0"/>
+        <v>0.76616379310344818</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
         <v>44476</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57142857142857051</v>
       </c>
       <c r="D20" s="6">
         <f>D19</f>
         <v>1.0580357142857142</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="13">
+        <f t="shared" si="0"/>
+        <v>0.76616379310344818</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="5">
         <v>44477</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.52380952380952284</v>
       </c>
       <c r="D21" s="6">
         <f>D20-([1]Commun!$C$9+[1]Aurélie!$C$12)</f>
         <v>1.0198412698412698</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="13">
+        <f t="shared" si="0"/>
+        <v>0.7385057471264368</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
         <v>44478</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.47619047619047522</v>
       </c>
       <c r="D22" s="6">
         <f>D21</f>
         <v>1.0198412698412698</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="13">
+        <f t="shared" si="0"/>
+        <v>0.7385057471264368</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
         <v>44479</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4285714285714276</v>
       </c>
       <c r="D23" s="6">
         <f>D22-([1]Aurélie!$C$13+[1]Aurélie!$C$14+[1]Aurélie!$C$15)</f>
         <v>0.87748015873015861</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="13">
+        <f t="shared" si="0"/>
+        <v>0.63541666666666663</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="5">
         <v>44480</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.38095238095237999</v>
       </c>
       <c r="D24" s="6">
         <f>D23-([1]Commun!$C$10)</f>
         <v>0.79414682539682524</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="13">
+        <f t="shared" si="0"/>
+        <v>0.57507183908045967</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="5">
         <v>44481</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33333333333333237</v>
       </c>
       <c r="D25" s="6">
         <f>D24</f>
         <v>0.79414682539682524</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="13">
+        <f t="shared" si="0"/>
+        <v>0.57507183908045967</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="5">
         <v>44482</v>
       </c>
       <c r="C26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28571428571428475</v>
       </c>
       <c r="D26" s="6">
         <f>D25</f>
         <v>0.79414682539682524</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="13">
+        <f t="shared" si="0"/>
+        <v>0.57507183908045967</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="5">
         <v>44483</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23809523809523714</v>
       </c>
       <c r="D27" s="6">
         <f>D26-([1]Commun!$C$11+[1]Aurélie!$C$16)</f>
         <v>0.70039682539682524</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="13">
+        <f t="shared" si="0"/>
+        <v>0.50718390804597691</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="5">
         <v>44484</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19047619047618952</v>
       </c>
       <c r="D28" s="6">
         <f>D27</f>
         <v>0.70039682539682524</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="13">
+        <f t="shared" si="0"/>
+        <v>0.50718390804597691</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="5">
         <v>44485</v>
       </c>
       <c r="C29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14285714285714191</v>
       </c>
       <c r="D29" s="6">
         <f>D28</f>
         <v>0.70039682539682524</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="13">
+        <f t="shared" si="0"/>
+        <v>0.50718390804597691</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="5">
         <v>44486</v>
       </c>
       <c r="C30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5238095238094289E-2</v>
       </c>
       <c r="D30" s="6">
         <f>D29</f>
         <v>0.70039682539682524</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="13">
+        <f t="shared" si="0"/>
+        <v>0.50718390804597691</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
         <v>44487</v>
       </c>
       <c r="C31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7619047619046673E-2</v>
       </c>
       <c r="D31" s="6">
         <f>D30-([1]Commun!$C$12)</f>
         <v>0.65873015873015861</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="13">
+        <f t="shared" si="0"/>
+        <v>0.47701149425287348</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
         <v>44488</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.4368957093138306E-16</v>
       </c>
       <c r="D32" s="6">
         <f>D31-([1]Commun!$C$13)</f>
         <v>0.61706349206349198</v>
+      </c>
+      <c r="E32" s="13">
+        <f t="shared" si="0"/>
+        <v>0.44683908045977005</v>
       </c>
     </row>
   </sheetData>
@@ -10581,8 +10983,8 @@
   <dimension ref="B1:F32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10600,6 +11002,9 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -10608,6 +11013,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -10622,6 +11028,10 @@
         <f>C3-([1]Commun!$C$4+[1]Commun!$C$5+[1]Coralie!$C$4+[1]!Tableau1[[#This Row],[DURÉE]])</f>
         <v>1.3323412698412698</v>
       </c>
+      <c r="E3" s="13">
+        <f>D3/$C$3</f>
+        <v>0.9647988505747126</v>
+      </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
@@ -10635,125 +11045,162 @@
         <f>D3</f>
         <v>1.3323412698412698</v>
       </c>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E32" si="0">D4/$C$3</f>
+        <v>0.9647988505747126</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>44461</v>
       </c>
       <c r="C5" s="6">
-        <f t="shared" ref="C5:C32" si="0">C4-(($F$1/7))</f>
+        <f t="shared" ref="C5:C32" si="1">C4-(($F$1/7))</f>
         <v>1.2857142857142856</v>
       </c>
       <c r="D5" s="6">
         <f>D4-([1]!Tableau1[[#This Row],[DURÉE]])</f>
         <v>1.3288690476190474</v>
       </c>
+      <c r="E5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.96228448275862055</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>44462</v>
       </c>
       <c r="C6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2380952380952379</v>
       </c>
       <c r="D6" s="6">
         <f>D5</f>
         <v>1.3288690476190474</v>
       </c>
+      <c r="E6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.96228448275862055</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>44463</v>
       </c>
       <c r="C7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1904761904761902</v>
       </c>
       <c r="D7" s="6">
         <f>D6</f>
         <v>1.3288690476190474</v>
       </c>
+      <c r="E7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.96228448275862055</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>44464</v>
       </c>
       <c r="C8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1428571428571426</v>
       </c>
       <c r="D8" s="6">
         <f>D7</f>
         <v>1.3288690476190474</v>
       </c>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.96228448275862055</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>44465</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0952380952380949</v>
       </c>
       <c r="D9" s="6">
         <f>D8-([1]Coralie!$C$6+[1]Coralie!$C$7)</f>
         <v>1.2003968253968251</v>
       </c>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.86925287356321823</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="5">
         <v>44466</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0476190476190472</v>
       </c>
       <c r="D10" s="6">
         <f>D9-([1]Coralie!$C$8)</f>
         <v>1.1587301587301584</v>
       </c>
+      <c r="E10" s="13">
+        <f>D10/$C$3</f>
+        <v>0.83908045977011469</v>
+      </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="5">
         <v>44467</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999956</v>
       </c>
       <c r="D11" s="6">
         <f>D10-([1]Coralie!$C$9+[1]Coralie!$C$10)</f>
         <v>1.1170634920634916</v>
       </c>
+      <c r="E11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.80890804597701116</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>44468</v>
       </c>
       <c r="C12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95238095238095188</v>
       </c>
       <c r="D12" s="6">
         <f>D11-([1]Commun!$C$6)</f>
         <v>1.0753968253968249</v>
       </c>
+      <c r="E12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.77873563218390773</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>44469</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.90476190476190421</v>
       </c>
       <c r="D13" s="6">
         <f>D12</f>
         <v>1.0753968253968249</v>
       </c>
-      <c r="E13" t="s">
-        <v>3</v>
+      <c r="E13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.77873563218390773</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
@@ -10761,246 +11208,322 @@
         <v>44470</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.85714285714285654</v>
       </c>
       <c r="D14" s="6">
         <f>D13-([1]Commun!$C$7+[1]Commun!$C$8+[1]Coralie!$C$12)</f>
         <v>1.0094246031746026</v>
       </c>
+      <c r="E14" s="13">
+        <f t="shared" si="0"/>
+        <v>0.73096264367816055</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
         <v>44471</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80952380952380887</v>
       </c>
       <c r="D15" s="6">
         <f>D14</f>
         <v>1.0094246031746026</v>
       </c>
+      <c r="E15" s="13">
+        <f t="shared" si="0"/>
+        <v>0.73096264367816055</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
         <v>44472</v>
       </c>
       <c r="C16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.7619047619047612</v>
       </c>
       <c r="D16" s="6">
         <f>D15-([1]Coralie!$C$13+[1]Coralie!$C$14+[1]Coralie!$C$15)</f>
         <v>0.92261904761904701</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="13">
+        <f t="shared" si="0"/>
+        <v>0.66810344827586166</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <v>44473</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.71428571428571352</v>
       </c>
       <c r="D17" s="6">
         <f>D16</f>
         <v>0.92261904761904701</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="13">
+        <f t="shared" si="0"/>
+        <v>0.66810344827586166</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
         <v>44474</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66666666666666585</v>
       </c>
       <c r="D18" s="6">
         <f>D17</f>
         <v>0.92261904761904701</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="13">
+        <f t="shared" si="0"/>
+        <v>0.66810344827586166</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
         <v>44475</v>
       </c>
       <c r="C19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.61904761904761818</v>
       </c>
       <c r="D19" s="6">
         <f>D18</f>
         <v>0.92261904761904701</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="13">
+        <f t="shared" si="0"/>
+        <v>0.66810344827586166</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
         <v>44476</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57142857142857051</v>
       </c>
       <c r="D20" s="6">
         <f>D19</f>
         <v>0.92261904761904701</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="13">
+        <f t="shared" si="0"/>
+        <v>0.66810344827586166</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="5">
         <v>44477</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.52380952380952284</v>
       </c>
       <c r="D21" s="6">
         <f>D20-([1]Commun!$C$9+[1]Coralie!$C$16+[1]Coralie!$C$17+[1]Coralie!$C$18)</f>
         <v>0.87053571428571364</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="13">
+        <f t="shared" si="0"/>
+        <v>0.63038793103448232</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
         <v>44478</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.47619047619047522</v>
       </c>
       <c r="D22" s="6">
         <f>D21</f>
         <v>0.87053571428571364</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="13">
+        <f t="shared" si="0"/>
+        <v>0.63038793103448232</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
         <v>44479</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4285714285714276</v>
       </c>
       <c r="D23" s="6">
         <f>D22</f>
         <v>0.87053571428571364</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="13">
+        <f t="shared" si="0"/>
+        <v>0.63038793103448232</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="5">
         <v>44480</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.38095238095237999</v>
       </c>
       <c r="D24" s="6">
         <f>D23-([1]Commun!$C$10+[1]Coralie!$C$19+[1]Coralie!$C$20)</f>
         <v>0.74553571428571364</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="13">
+        <f t="shared" si="0"/>
+        <v>0.53987068965517193</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="5">
         <v>44481</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33333333333333237</v>
       </c>
       <c r="D25" s="6">
         <f>D24</f>
         <v>0.74553571428571364</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="13">
+        <f t="shared" si="0"/>
+        <v>0.53987068965517193</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="5">
         <v>44482</v>
       </c>
       <c r="C26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28571428571428475</v>
       </c>
       <c r="D26" s="6">
         <f>D25</f>
         <v>0.74553571428571364</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="13">
+        <f t="shared" si="0"/>
+        <v>0.53987068965517193</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="5">
         <v>44483</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23809523809523714</v>
       </c>
       <c r="D27" s="6">
         <f>D26-([1]Commun!$C$11+[1]Coralie!$C$21+[1]Coralie!$C$22+[1]Coralie!$C$23+[1]Coralie!$C$24)</f>
         <v>0.6066468253968248</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="13">
+        <f t="shared" si="0"/>
+        <v>0.43929597701149381</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="5">
         <v>44484</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19047619047618952</v>
       </c>
       <c r="D28" s="6">
         <f>D27-([1]Coralie!$C$25)</f>
         <v>0.55456349206349143</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="13">
+        <f t="shared" si="0"/>
+        <v>0.40158045977011447</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="5">
         <v>44485</v>
       </c>
       <c r="C29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14285714285714191</v>
       </c>
       <c r="D29" s="6">
         <f>D28-([1]Coralie!$C$26+[1]Coralie!$C$27+[1]Coralie!$C$28+[1]!Tableau1[[#This Row],[DURÉE]]+[1]Coralie!$C$30)</f>
         <v>0.38095238095238032</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="13">
+        <f t="shared" si="0"/>
+        <v>0.27586206896551679</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="5">
         <v>44486</v>
       </c>
       <c r="C30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5238095238094289E-2</v>
       </c>
       <c r="D30" s="6">
         <f>D29-([1]Coralie!$C$31+[1]Coralie!$C$32)</f>
         <v>0.35317460317460253</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="13">
+        <f t="shared" si="0"/>
+        <v>0.25574712643678116</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
         <v>44487</v>
       </c>
       <c r="C31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7619047619046673E-2</v>
       </c>
       <c r="D31" s="6">
         <f>D30-([1]Commun!$C$12+[1]Coralie!$C$33)</f>
         <v>0.28025793650793585</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="13">
+        <f t="shared" si="0"/>
+        <v>0.20294540229885011</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
         <v>44488</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.4368957093138306E-16</v>
       </c>
       <c r="D32" s="6">
         <f>D31-([1]Commun!$C$13)</f>
         <v>0.23859126984126919</v>
+      </c>
+      <c r="E32" s="13">
+        <f t="shared" si="0"/>
+        <v>0.17277298850574666</v>
       </c>
     </row>
   </sheetData>
@@ -11016,7 +11539,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomLeft" activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11034,6 +11557,9 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -11042,6 +11568,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -11056,6 +11583,10 @@
         <f>C3-([1]Commun!$C$4+[1]Commun!$C$5+[1]!Tableau2[[#This Row],[DURÉE]])</f>
         <v>1.3358134920634921</v>
       </c>
+      <c r="E3" s="13">
+        <f>D3/$C$3</f>
+        <v>0.96731321839080464</v>
+      </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
@@ -11069,70 +11600,94 @@
         <f>D3</f>
         <v>1.3358134920634921</v>
       </c>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E32" si="0">D4/$C$3</f>
+        <v>0.96731321839080464</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>44461</v>
       </c>
       <c r="C5" s="6">
-        <f t="shared" ref="C5:C32" si="0">C4-(($F$1/7))</f>
+        <f t="shared" ref="C5:C32" si="1">C4-(($F$1/7))</f>
         <v>1.2857142857142856</v>
       </c>
       <c r="D5" s="6">
         <f>D4</f>
         <v>1.3358134920634921</v>
       </c>
+      <c r="E5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.96731321839080464</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>44462</v>
       </c>
       <c r="C6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2380952380952379</v>
       </c>
       <c r="D6" s="6">
         <f>D5</f>
         <v>1.3358134920634921</v>
       </c>
+      <c r="E6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.96731321839080464</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="5">
         <v>44463</v>
       </c>
       <c r="C7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1904761904761902</v>
       </c>
       <c r="D7" s="6">
         <f>D6-([1]Constantin!$C$5+[1]Constantin!$C$4)</f>
         <v>1.2927579365079365</v>
       </c>
+      <c r="E7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.93613505747126435</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>44464</v>
       </c>
       <c r="C8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1428571428571426</v>
       </c>
       <c r="D8" s="6">
         <f>D7</f>
         <v>1.2927579365079365</v>
       </c>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.93613505747126435</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>44465</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0952380952380949</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" ref="D9:D11" si="1">D8</f>
+        <f t="shared" ref="D9:D11" si="2">D8</f>
         <v>1.2927579365079365</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.93613505747126435</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
@@ -11140,12 +11695,16 @@
         <v>44466</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0476190476190472</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2927579365079365</v>
+      </c>
+      <c r="E10" s="13">
+        <f>D10/$C$3</f>
+        <v>0.93613505747126435</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
@@ -11153,12 +11712,16 @@
         <v>44467</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.99999999999999956</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2927579365079365</v>
+      </c>
+      <c r="E11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.93613505747126435</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
@@ -11166,28 +11729,33 @@
         <v>44468</v>
       </c>
       <c r="C12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95238095238095188</v>
       </c>
       <c r="D12" s="6">
         <f>D11-([1]Constantin!$C$6+[1]Commun!$C$6)</f>
         <v>1.1677579365079365</v>
       </c>
+      <c r="E12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.84561781609195397</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="5">
         <v>44469</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.90476190476190421</v>
       </c>
       <c r="D13" s="6">
         <f>D12</f>
         <v>1.1677579365079365</v>
       </c>
-      <c r="E13" t="s">
-        <v>3</v>
+      <c r="E13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.84561781609195397</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
@@ -11195,25 +11763,33 @@
         <v>44470</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.85714285714285654</v>
       </c>
       <c r="D14" s="6">
         <f>D13-([1]Commun!$C$7+[1]Commun!$C$8)</f>
         <v>1.1226190476190476</v>
       </c>
+      <c r="E14" s="13">
+        <f t="shared" si="0"/>
+        <v>0.81293103448275861</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="5">
         <v>44471</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80952380952380887</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" ref="D15:D20" si="2">D14</f>
+        <f t="shared" ref="D15:D20" si="3">D14</f>
         <v>1.1226190476190476</v>
+      </c>
+      <c r="E15" s="13">
+        <f t="shared" si="0"/>
+        <v>0.81293103448275861</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
@@ -11221,220 +11797,288 @@
         <v>44472</v>
       </c>
       <c r="C16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.7619047619047612</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1226190476190476</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="13">
+        <f t="shared" si="0"/>
+        <v>0.81293103448275861</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <v>44473</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.71428571428571352</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1226190476190476</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="13">
+        <f t="shared" si="0"/>
+        <v>0.81293103448275861</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
         <v>44474</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.66666666666666585</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1226190476190476</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="13">
+        <f t="shared" si="0"/>
+        <v>0.81293103448275861</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
         <v>44475</v>
       </c>
       <c r="C19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.61904761904761818</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1226190476190476</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="13">
+        <f t="shared" si="0"/>
+        <v>0.81293103448275861</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
         <v>44476</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57142857142857051</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1226190476190476</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="13">
+        <f t="shared" si="0"/>
+        <v>0.81293103448275861</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="5">
         <v>44477</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.52380952380952284</v>
       </c>
       <c r="D21" s="6">
         <f>D20-([1]Commun!$C$9+[1]Constantin!$C$7)</f>
         <v>1.0878968253968253</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="13">
+        <f t="shared" si="0"/>
+        <v>0.78778735632183905</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
         <v>44478</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.47619047619047522</v>
       </c>
       <c r="D22" s="6">
         <f>D21</f>
         <v>1.0878968253968253</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="13">
+        <f t="shared" si="0"/>
+        <v>0.78778735632183905</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
         <v>44479</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.4285714285714276</v>
       </c>
       <c r="D23" s="6">
         <f>D22-([1]Constantin!$C$8)</f>
         <v>1.0253968253968253</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="13">
+        <f t="shared" si="0"/>
+        <v>0.7425287356321838</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="5">
         <v>44480</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.38095238095237999</v>
       </c>
       <c r="D24" s="6">
         <f>D23-([1]Commun!$C$10)</f>
         <v>0.94206349206349194</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="13">
+        <f t="shared" si="0"/>
+        <v>0.68218390804597695</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="5">
         <v>44481</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.33333333333333237</v>
       </c>
       <c r="D25" s="6">
         <f>D24</f>
         <v>0.94206349206349194</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="13">
+        <f t="shared" si="0"/>
+        <v>0.68218390804597695</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="5">
         <v>44482</v>
       </c>
       <c r="C26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.28571428571428475</v>
       </c>
       <c r="D26" s="6">
         <f>D25</f>
         <v>0.94206349206349194</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="13">
+        <f t="shared" si="0"/>
+        <v>0.68218390804597695</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="5">
         <v>44483</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.23809523809523714</v>
       </c>
       <c r="D27" s="6">
         <f>D26-([1]Commun!$C$11)</f>
         <v>0.90039682539682531</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="13">
+        <f t="shared" si="0"/>
+        <v>0.65201149425287352</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="5">
         <v>44484</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19047619047618952</v>
       </c>
       <c r="D28" s="6">
         <f>D27</f>
         <v>0.90039682539682531</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="13">
+        <f t="shared" si="0"/>
+        <v>0.65201149425287352</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="5">
         <v>44485</v>
       </c>
       <c r="C29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.14285714285714191</v>
       </c>
       <c r="D29" s="6">
         <f>D28-([1]Constantin!$C$9)</f>
         <v>0.87956349206349194</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="13">
+        <f t="shared" si="0"/>
+        <v>0.63692528735632181</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="5">
         <v>44486</v>
       </c>
       <c r="C30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.5238095238094289E-2</v>
       </c>
       <c r="D30" s="6">
         <f>D29</f>
         <v>0.87956349206349194</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="13">
+        <f t="shared" si="0"/>
+        <v>0.63692528735632181</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
         <v>44487</v>
       </c>
       <c r="C31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7619047619046673E-2</v>
       </c>
       <c r="D31" s="6">
         <f>D30-([1]Commun!$C$12)</f>
         <v>0.83789682539682531</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="13">
+        <f t="shared" si="0"/>
+        <v>0.60675287356321839</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
         <v>44488</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.4368957093138306E-16</v>
       </c>
       <c r="D32" s="6">
         <f>D31-([1]Commun!$C$13+[1]Constantin!$C$10)</f>
         <v>0.75456349206349194</v>
+      </c>
+      <c r="E32" s="13">
+        <f t="shared" si="0"/>
+        <v>0.54640804597701143</v>
       </c>
     </row>
   </sheetData>
@@ -11448,9 +12092,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F751D1-D530-4D4B-B04B-5D0F9CEA0F75}">
   <dimension ref="B1:F40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" zoomScale="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11469,6 +12113,9 @@
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="E1" s="11" t="s">
+        <v>3</v>
+      </c>
       <c r="F1" s="2">
         <v>0.33333333333333331</v>
       </c>
@@ -11477,6 +12124,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -11491,6 +12139,10 @@
         <f>C3</f>
         <v>7.0476190476190474</v>
       </c>
+      <c r="E3" s="13">
+        <f>D3/$C$3</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="5">
@@ -11504,31 +12156,43 @@
         <f>D3-([1]Coralie!$C$34)</f>
         <v>7.0372023809523805</v>
       </c>
+      <c r="E4" s="13">
+        <f t="shared" ref="E4:E40" si="0">D4/$C$3</f>
+        <v>0.99852195945945943</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" s="5">
         <v>44491</v>
       </c>
       <c r="C5" s="6">
-        <f t="shared" ref="C5:C40" si="0">C4-(($F$1/7)*4)</f>
+        <f t="shared" ref="C5:C40" si="1">C4-(($F$1/7)*4)</f>
         <v>6.6666666666666661</v>
       </c>
       <c r="D5" s="6">
         <f>D4-([1]Angela!$C$20)</f>
         <v>7.0163690476190474</v>
       </c>
+      <c r="E5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.9955658783783784</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" s="5">
         <v>44492</v>
       </c>
       <c r="C6" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4761904761904754</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" ref="D6:D30" si="1">D5</f>
+        <f t="shared" ref="D6:D30" si="2">D5</f>
         <v>7.0163690476190474</v>
+      </c>
+      <c r="E6" s="13">
+        <f>D6/$C$3</f>
+        <v>0.9955658783783784</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
@@ -11536,38 +12200,50 @@
         <v>44493</v>
       </c>
       <c r="C7" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.2857142857142847</v>
       </c>
       <c r="D7" s="6">
         <f>D6-([1]Angela!$C$21+[1]Coralie!$C$35)</f>
         <v>6.9885912698412698</v>
       </c>
+      <c r="E7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.99162443693693691</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="5">
         <v>44494</v>
       </c>
       <c r="C8" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.095238095238094</v>
       </c>
       <c r="D8" s="6">
         <f>D7-([1]Angela!$C$22+[1]Angela!$C$23+[1]Coralie!$C$36+[1]Constantin!$C$11+[1]Constantin!$C$12+[1]Constantin!$C$13)</f>
         <v>6.8740079365079367</v>
       </c>
+      <c r="E8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.97536599099099108</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="5">
         <v>44495</v>
       </c>
       <c r="C9" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9047619047619033</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8740079365079367</v>
+      </c>
+      <c r="E9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.97536599099099108</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
@@ -11575,12 +12251,16 @@
         <v>44496</v>
       </c>
       <c r="C10" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.7142857142857126</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.8740079365079367</v>
+      </c>
+      <c r="E10" s="13">
+        <f>D10/$C$3</f>
+        <v>0.97536599099099108</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
@@ -11588,25 +12268,33 @@
         <v>44497</v>
       </c>
       <c r="C11" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5238095238095219</v>
       </c>
       <c r="D11" s="6">
         <f>D10-([1]Angela!$C$24+[1]Angela!$C$25+[1]Angela!$C$26+[1]Aurélie!$C$17+[1]Coralie!$C$37+[1]Coralie!$C$38)</f>
         <v>6.7281746031746037</v>
       </c>
+      <c r="E11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.95467342342342354</v>
+      </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="5">
         <v>44498</v>
       </c>
       <c r="C12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.3333333333333313</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7281746031746037</v>
+      </c>
+      <c r="E12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.95467342342342354</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
@@ -11614,15 +12302,16 @@
         <v>44499</v>
       </c>
       <c r="C13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1428571428571406</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7281746031746037</v>
       </c>
-      <c r="E13" t="s">
-        <v>3</v>
+      <c r="E13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.95467342342342354</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
@@ -11630,12 +12319,16 @@
         <v>44500</v>
       </c>
       <c r="C14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9523809523809499</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.7281746031746037</v>
+      </c>
+      <c r="E14" s="13">
+        <f t="shared" si="0"/>
+        <v>0.95467342342342354</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
@@ -11643,337 +12336,441 @@
         <v>44501</v>
       </c>
       <c r="C15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7619047619047592</v>
       </c>
       <c r="D15" s="6">
         <f>D14-([1]Angela!$C$27+[1]Coralie!$C$39+[1]Coralie!$C$40+[1]Coralie!$C$41)</f>
         <v>6.554563492063493</v>
       </c>
+      <c r="E15" s="13">
+        <f t="shared" si="0"/>
+        <v>0.93003941441441451</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="5">
         <v>44502</v>
       </c>
       <c r="C16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.5714285714285685</v>
       </c>
       <c r="D16" s="6">
         <f>D15-([1]Constantin!$C$14)</f>
         <v>6.512896825396826</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="13">
+        <f t="shared" si="0"/>
+        <v>0.92412725225225234</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B17" s="5">
         <v>44503</v>
       </c>
       <c r="C17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.3809523809523778</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6.512896825396826</v>
       </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="13">
+        <f t="shared" si="0"/>
+        <v>0.92412725225225234</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="5">
         <v>44504</v>
       </c>
       <c r="C18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1904761904761871</v>
       </c>
       <c r="D18" s="6">
         <f>D17-([1]Angela!$C$28+[1]Aurélie!$C$18+[1]Coralie!$C$42+[1]Coralie!$C$43)</f>
         <v>6.3948412698412707</v>
       </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="13">
+        <f t="shared" si="0"/>
+        <v>0.90737612612612628</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B19" s="5">
         <v>44505</v>
       </c>
       <c r="C19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9999999999999964</v>
       </c>
       <c r="D19" s="6">
         <f>D18-([1]Commun!$C$14*4+[1]Commun!$C$15*4+[1]Aurélie!$C$19+[1]Aurélie!$C$20)</f>
         <v>5.8948412698412707</v>
       </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="13">
+        <f t="shared" si="0"/>
+        <v>0.83643018018018034</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="5">
         <v>44506</v>
       </c>
       <c r="C20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.8095238095238058</v>
       </c>
       <c r="D20" s="6">
         <f>D19-([1]Angela!$C$29+[1]Coralie!$C$44+[1]Coralie!$C$45+[1]Constantin!$C$15)</f>
         <v>5.8392857142857153</v>
       </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="13">
+        <f t="shared" si="0"/>
+        <v>0.82854729729729748</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B21" s="5">
         <v>44507</v>
       </c>
       <c r="C21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.6190476190476151</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.8392857142857153</v>
       </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E21" s="13">
+        <f t="shared" si="0"/>
+        <v>0.82854729729729748</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B22" s="5">
         <v>44508</v>
       </c>
       <c r="C22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4285714285714244</v>
       </c>
       <c r="D22" s="6">
         <f>D21-([1]Commun!$C$16*4+[1]Constantin!$C$16)</f>
         <v>5.6517857142857153</v>
       </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E22" s="13">
+        <f t="shared" si="0"/>
+        <v>0.80194256756756777</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B23" s="5">
         <v>44509</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2380952380952337</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6517857142857153</v>
       </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E23" s="13">
+        <f t="shared" si="0"/>
+        <v>0.80194256756756777</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="5">
         <v>44510</v>
       </c>
       <c r="C24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.047619047619043</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6517857142857153</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E24" s="13">
+        <f t="shared" si="0"/>
+        <v>0.80194256756756777</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B25" s="5">
         <v>44511</v>
       </c>
       <c r="C25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.8571428571428523</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6517857142857153</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="13">
+        <f t="shared" si="0"/>
+        <v>0.80194256756756777</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B26" s="5">
         <v>44512</v>
       </c>
       <c r="C26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6666666666666616</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6517857142857153</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E26" s="13">
+        <f t="shared" si="0"/>
+        <v>0.80194256756756777</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="5">
         <v>44513</v>
       </c>
       <c r="C27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4761904761904709</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6517857142857153</v>
       </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="13">
+        <f t="shared" si="0"/>
+        <v>0.80194256756756777</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B28" s="5">
         <v>44514</v>
       </c>
       <c r="C28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2857142857142803</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.6517857142857153</v>
       </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E28" s="13">
+        <f t="shared" si="0"/>
+        <v>0.80194256756756777</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B29" s="5">
         <v>44515</v>
       </c>
       <c r="C29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0952380952380896</v>
       </c>
       <c r="D29" s="6">
         <f>D28-([1]Angela!$C$30+[1]Aurélie!$C$21+[1]Coralie!$C$46+[1]Coralie!$C$47)</f>
         <v>5.5684523809523823</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E29" s="13">
+        <f t="shared" si="0"/>
+        <v>0.79011824324324342</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B30" s="5">
         <v>44516</v>
       </c>
       <c r="C30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9047619047618991</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.5684523809523823</v>
       </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E30" s="13">
+        <f t="shared" si="0"/>
+        <v>0.79011824324324342</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B31" s="5">
         <v>44517</v>
       </c>
       <c r="C31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7142857142857086</v>
       </c>
       <c r="D31" s="6">
         <f>D30-([1]Angela!$C$31)</f>
         <v>5.5267857142857153</v>
       </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E31" s="13">
+        <f t="shared" si="0"/>
+        <v>0.78420608108108125</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="5">
         <v>44518</v>
       </c>
       <c r="C32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5238095238095182</v>
       </c>
       <c r="D32" s="6">
         <f>D31-([1]Angela!$C$32+[1]Aurélie!$C$22+[1]Coralie!$C$48)</f>
         <v>5.2663690476190483</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E32" s="13">
+        <f t="shared" si="0"/>
+        <v>0.74725506756756765</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B33" s="5">
         <v>44519</v>
       </c>
       <c r="C33" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3333333333333277</v>
       </c>
       <c r="D33" s="6">
         <f>D32-([1]Angela!$C$34+[1]Angela!$C$35+[1]Aurélie!$C$23+[1]Aurélie!$C$24+[1]Aurélie!$C$25+[1]Coralie!$C$49)</f>
         <v>4.9365079365079376</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E33" s="13">
+        <f t="shared" si="0"/>
+        <v>0.70045045045045062</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B34" s="5">
         <v>44520</v>
       </c>
       <c r="C34" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1428571428571372</v>
       </c>
       <c r="D34" s="6">
         <f>D33-([1]Coralie!$C$50+[1]Constantin!$C$17+[1]Constantin!$C$18)</f>
         <v>4.7594246031746046</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E34" s="13">
+        <f t="shared" si="0"/>
+        <v>0.67532376126126148</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" s="5">
         <v>44521</v>
       </c>
       <c r="C35" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.95238095238094678</v>
       </c>
       <c r="D35" s="6">
         <f>D34-([1]Angela!$C$36+[1]Constantin!$C$19)</f>
         <v>4.7316468253968269</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E35" s="13">
+        <f t="shared" si="0"/>
+        <v>0.67138231981981999</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B36" s="5">
         <v>44522</v>
       </c>
       <c r="C36" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.76190476190475631</v>
       </c>
       <c r="D36" s="6">
         <f>D35-([1]Commun!$C$17*4+[1]Constantin!$C$20+[1]Constantin!$C$21)</f>
         <v>4.3149801587301599</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E36" s="13">
+        <f t="shared" si="0"/>
+        <v>0.61226069819819839</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B37" s="5">
         <v>44523</v>
       </c>
       <c r="C37" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.57142857142856585</v>
       </c>
       <c r="D37" s="6">
         <f>D36-([1]Constantin!$C$22+[1]Constantin!$C$23)</f>
         <v>4.085813492063493</v>
       </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E37" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5797438063063064</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B38" s="5">
         <v>44524</v>
       </c>
       <c r="C38" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.38095238095237538</v>
       </c>
       <c r="D38" s="6">
         <f>D37-([1]Angela!$C$37+[1]Aurélie!$C$26+[1]Aurélie!$C$27+[1]Coralie!$C$51)</f>
         <v>3.929563492063493</v>
       </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E38" s="13">
+        <f t="shared" si="0"/>
+        <v>0.55757319819819839</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" s="5">
         <v>44525</v>
       </c>
       <c r="C39" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.19047619047618491</v>
       </c>
       <c r="D39" s="6">
         <f>D38-([1]Angela!$C$38+[1]!Tableau4[[#This Row],[DURÉE]]+[1]Aurélie!$C$28+[1]Aurélie!$C$29+[1]Coralie!$C$52)</f>
         <v>3.7385912698412707</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="E39" s="13">
+        <f t="shared" si="0"/>
+        <v>0.53047578828828845</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B40" s="5">
         <v>44526</v>
       </c>
       <c r="C40" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.5511151231257827E-15</v>
       </c>
       <c r="D40" s="6">
-        <f t="shared" ref="D34:D40" si="2">D39</f>
+        <f t="shared" ref="D40" si="3">D39</f>
         <v>3.7385912698412707</v>
+      </c>
+      <c r="E40" s="13">
+        <f t="shared" si="0"/>
+        <v>0.53047578828828845</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Scrum/BurnDown_chart.xlsx
+++ b/Documents/Scrum/BurnDown_chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712F75FF-81E2-DB4D-AF6D-84F8DA2F07D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8D303F-9963-694F-BCD2-DEAB9F72F832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 - Commun" sheetId="5" r:id="rId1"/>
@@ -2725,103 +2725,103 @@
                   <c:v>9.2673611111111107</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.21875</c:v>
+                  <c:v>9.2361111111111107</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.21875</c:v>
+                  <c:v>9.125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.21875</c:v>
+                  <c:v>9.125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.21875</c:v>
+                  <c:v>9.125</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9.21875</c:v>
+                  <c:v>9.03125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9.21875</c:v>
+                  <c:v>9.03125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.21875</c:v>
+                  <c:v>9.03125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.96875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.96875</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.8472222222222214</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.8472222222222214</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.5729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.5729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.5729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.5729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.5729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.5729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.5729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.5729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.5729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.5729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.5729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.5729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.5729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.5729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.5729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.5729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.5729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.5729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.5729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.5729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.5729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.21875</c:v>
+                  <c:v>8.5729166666666661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15411,6 +15411,11 @@
             <v>1.0416666666666666E-2</v>
           </cell>
         </row>
+        <row r="21">
+          <cell r="C21">
+            <v>8.3333333333333329E-2</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="4">
@@ -15588,6 +15593,16 @@
             <v>2.0833333333333332E-2</v>
           </cell>
         </row>
+        <row r="41">
+          <cell r="C41">
+            <v>8.3333333333333329E-2</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>6.9444444444444441E-3</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="6">
@@ -15723,6 +15738,31 @@
         <row r="32">
           <cell r="C32">
             <v>1.3888888888888888E-2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>6.25E-2</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>3.125E-2</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>1.0416666666666666E-2</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>8.3333333333333329E-2</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>1.0416666666666666E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -15970,6 +16010,31 @@
         <row r="55">
           <cell r="C55">
             <v>3.472222222222222E-3</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56">
+            <v>6.25E-2</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>3.472222222222222E-3</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59">
+            <v>8.3333333333333329E-2</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60">
+            <v>6.9444444444444441E-3</v>
           </cell>
         </row>
       </sheetData>
@@ -17832,9 +17897,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95B33861-A6CD-FD46-8D39-39086376AEA2}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I37" sqref="I37"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17943,7 +18008,7 @@
         <v>8.7619047619047628</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" ref="D5:D51" si="3">D5</f>
+        <f t="shared" ref="D6:D51" si="3">D5</f>
         <v>9.2673611111111107</v>
       </c>
       <c r="E6" s="13">
@@ -17985,12 +18050,12 @@
         <v>8.3809523809523832</v>
       </c>
       <c r="D8" s="6">
-        <f>D7-([1]Aurélie!$C$30+[1]Aurélie!$C$31+[1]Aurélie!$C$32)</f>
-        <v>9.21875</v>
+        <f>D7-([1]Aurélie!$C$30)</f>
+        <v>9.2361111111111107</v>
       </c>
       <c r="E8" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.98958333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -18006,12 +18071,12 @@
         <v>8.1904761904761934</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <f>D8-([1]Aurélie!$C$31+[1]Aurélie!$C$32+[1]Aurélie!$C$33+[1]Aurélie!$C$34)</f>
+        <v>9.125</v>
       </c>
       <c r="E9" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.97767857142857151</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -18028,11 +18093,11 @@
       </c>
       <c r="D10" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>9.125</v>
       </c>
       <c r="E10" s="13">
         <f>D10/$C$3</f>
-        <v>0.98772321428571441</v>
+        <v>0.97767857142857151</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -18049,11 +18114,11 @@
       </c>
       <c r="D11" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>9.125</v>
       </c>
       <c r="E11" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.97767857142857151</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -18069,12 +18134,12 @@
         <v>7.6190476190476222</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <f>D11-([1]Aurélie!$C$35+[1]Commun!$C$21)</f>
+        <v>9.03125</v>
       </c>
       <c r="E12" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.96763392857142871</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -18091,11 +18156,11 @@
       </c>
       <c r="D13" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>9.03125</v>
       </c>
       <c r="E13" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.96763392857142871</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -18112,11 +18177,11 @@
       </c>
       <c r="D14" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>9.03125</v>
       </c>
       <c r="E14" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.96763392857142871</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -18132,12 +18197,12 @@
         <v>7.0476190476190501</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <f>D14-([1]Coralie!$C$56)</f>
+        <v>8.96875</v>
       </c>
       <c r="E15" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.96093750000000011</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -18154,11 +18219,11 @@
       </c>
       <c r="D16" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.96875</v>
       </c>
       <c r="E16" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.96093750000000011</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -18174,12 +18239,12 @@
         <v>6.6666666666666687</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <f>D16-([1]Coralie!$C$57-[1]Coralie!$C$58)</f>
+        <v>8.8472222222222214</v>
       </c>
       <c r="E17" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.94791666666666674</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -18196,11 +18261,11 @@
       </c>
       <c r="D18" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.8472222222222214</v>
       </c>
       <c r="E18" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.94791666666666674</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -18216,12 +18281,12 @@
         <v>6.2857142857142874</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <f>D18-([1]Coralie!$C$59+[1]Coralie!$C$60+[1]Aurélie!$C$36+[1]Aurélie!$C$37+[1]Angela!$C$41+[1]Angela!$C$42)</f>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E19" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -18238,11 +18303,11 @@
       </c>
       <c r="D20" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E20" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -18259,11 +18324,11 @@
       </c>
       <c r="D21" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E21" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -18280,11 +18345,11 @@
       </c>
       <c r="D22" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E22" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -18301,11 +18366,11 @@
       </c>
       <c r="D23" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E23" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -18322,11 +18387,11 @@
       </c>
       <c r="D24" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E24" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -18343,11 +18408,11 @@
       </c>
       <c r="D25" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E25" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -18364,11 +18429,11 @@
       </c>
       <c r="D26" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E26" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -18385,11 +18450,11 @@
       </c>
       <c r="D27" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E27" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -18406,11 +18471,11 @@
       </c>
       <c r="D28" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E28" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -18427,11 +18492,11 @@
       </c>
       <c r="D29" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E29" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -18448,11 +18513,11 @@
       </c>
       <c r="D30" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E30" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -18469,11 +18534,11 @@
       </c>
       <c r="D31" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E31" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -18490,11 +18555,11 @@
       </c>
       <c r="D32" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E32" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -18511,11 +18576,11 @@
       </c>
       <c r="D33" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E33" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -18527,16 +18592,16 @@
         <v>44558</v>
       </c>
       <c r="C34" s="6">
-        <f t="shared" si="2"/>
+        <f>C33-(($F$1/7)*4)</f>
         <v>3.428571428571427</v>
       </c>
       <c r="D34" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E34" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -18553,11 +18618,11 @@
       </c>
       <c r="D35" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E35" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -18574,11 +18639,11 @@
       </c>
       <c r="D36" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E36" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -18595,11 +18660,11 @@
       </c>
       <c r="D37" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E37" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -18616,11 +18681,11 @@
       </c>
       <c r="D38" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E38" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -18637,11 +18702,11 @@
       </c>
       <c r="D39" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E39" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -18658,11 +18723,11 @@
       </c>
       <c r="D40" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E40" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -18679,11 +18744,11 @@
       </c>
       <c r="D41" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E41" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -18700,11 +18765,11 @@
       </c>
       <c r="D42" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E42" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -18721,11 +18786,11 @@
       </c>
       <c r="D43" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E43" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -18742,11 +18807,11 @@
       </c>
       <c r="D44" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E44" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -18763,11 +18828,11 @@
       </c>
       <c r="D45" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E45" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -18784,11 +18849,11 @@
       </c>
       <c r="D46" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E46" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -18805,11 +18870,11 @@
       </c>
       <c r="D47" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E47" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -18826,11 +18891,11 @@
       </c>
       <c r="D48" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E48" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -18847,11 +18912,11 @@
       </c>
       <c r="D49" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E49" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -18868,11 +18933,11 @@
       </c>
       <c r="D50" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E50" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -18889,11 +18954,11 @@
       </c>
       <c r="D51" s="6">
         <f t="shared" si="3"/>
-        <v>9.21875</v>
+        <v>8.5729166666666661</v>
       </c>
       <c r="E51" s="13">
         <f t="shared" si="0"/>
-        <v>0.98772321428571441</v>
+        <v>0.91852678571428581</v>
       </c>
     </row>
   </sheetData>
@@ -20200,7 +20265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96421919-AD2A-D749-A669-506A039EBD4B}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G47" sqref="G47"/>
     </sheetView>

--- a/Documents/Scrum/BurnDown_chart.xlsx
+++ b/Documents/Scrum/BurnDown_chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC8D303F-9963-694F-BCD2-DEAB9F72F832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C536ED9-653A-8C4C-AA7D-CBC9C606F55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 - Commun" sheetId="5" r:id="rId1"/>

--- a/Documents/Scrum/BurnDown_chart.xlsx
+++ b/Documents/Scrum/BurnDown_chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Aurelie/Documents/GitHub/WavContact/Documents/Scrum/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E347F2E4-3255-6D48-A710-6C9E9C5FE433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72A9F9F-9105-8E47-8BA5-2DF9861DEA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10240" yWindow="0" windowWidth="18560" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Commun" sheetId="5" r:id="rId1"/>
@@ -209,14 +209,6 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -225,6 +217,14 @@
     </xf>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -235,37 +235,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Pourcentage" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -357,7 +327,7 @@
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Tabellenformat 1" pivot="0" count="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}"/>
     <tableStyle name="Tabellenformat 2" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3326,94 +3296,94 @@
                   <c:v>1.9305555555555554</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.7638888888888886</c:v>
+                  <c:v>1.7013888888888886</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5850,94 +5820,94 @@
                   <c:v>2.2499999999999996</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.2499999999999996</c:v>
+                  <c:v>2.0729166666666661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6364,7 +6334,7 @@
             <c:numRef>
               <c:f>Commun!$C$37:$C$74</c:f>
               <c:numCache>
-                <c:formatCode>0\.0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>7.2380952380952372</c:v>
@@ -6635,7 +6605,7 @@
             <c:numRef>
               <c:f>Commun!$D$37:$D$74</c:f>
               <c:numCache>
-                <c:formatCode>0\.0</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>7.2380952380952372</c:v>
@@ -6845,7 +6815,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0\.0" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7606,94 +7576,94 @@
                   <c:v>8.3749999999999982</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>8.0590277777777768</c:v>
+                  <c:v>7.8194444444444429</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -22668,7 +22638,7 @@
         </row>
         <row r="61">
           <cell r="C61">
-            <v>0.16666666666666666</v>
+            <v>0.22916666666666666</v>
           </cell>
         </row>
       </sheetData>
@@ -22771,6 +22741,21 @@
         <row r="23">
           <cell r="C23">
             <v>6.25E-2</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>3.125E-2</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>2.0833333333333332E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -23078,9 +23063,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E944A8AF-E90A-674F-82B5-AF6B2FDA755D}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K70" sqref="K70"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23108,12 +23093,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -23717,12 +23702,12 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="26" x14ac:dyDescent="0.2">
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
@@ -24485,12 +24470,12 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="26" x14ac:dyDescent="0.2">
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -24551,7 +24536,7 @@
         <v>9.2673611111111107</v>
       </c>
       <c r="E81" s="10">
-        <f t="shared" ref="E80:E127" si="7">D81/$C$79</f>
+        <f t="shared" ref="E81:E127" si="7">D81/$C$79</f>
         <v>0.99293154761904767</v>
       </c>
     </row>
@@ -24904,33 +24889,33 @@
         <v>5.7142857142857153</v>
       </c>
       <c r="D98" s="5">
-        <f>D97-([1]Angela!$C$48+[1]Angela!$C$49+[1]Aurélie!$C$38+[1]Aurélie!$C$39+[1]Aurélie!$C$40+[1]Coralie!$C$61+[1]Aurélie!$C$41)</f>
-        <v>8.0590277777777768</v>
+        <f>D97-([1]Angela!$C$48+[1]Angela!$C$49+[1]Aurélie!$C$38+[1]Aurélie!$C$39+[1]Aurélie!$C$40+[1]Coralie!$C$61+[1]Aurélie!$C$41+[1]Constantin!$C$24+[1]Constantin!$C$25+[1]Constantin!$C$26)</f>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E98" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>21</v>
       </c>
-      <c r="B99" s="13">
+      <c r="B99" s="11">
         <f t="shared" si="5"/>
         <v>44547</v>
       </c>
-      <c r="C99" s="14">
+      <c r="C99" s="12">
         <f t="shared" si="6"/>
         <v>5.5238095238095246</v>
       </c>
-      <c r="D99" s="14">
+      <c r="D99" s="12">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
-      </c>
-      <c r="E99" s="15">
+        <v>7.8194444444444429</v>
+      </c>
+      <c r="E99" s="13">
         <f>D99/$C$79</f>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -24947,11 +24932,11 @@
       </c>
       <c r="D100" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E100" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -24968,11 +24953,11 @@
       </c>
       <c r="D101" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E101" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -24989,11 +24974,11 @@
       </c>
       <c r="D102" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E102" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -25010,11 +24995,11 @@
       </c>
       <c r="D103" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E103" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -25031,11 +25016,11 @@
       </c>
       <c r="D104" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E104" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -25052,11 +25037,11 @@
       </c>
       <c r="D105" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E105" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -25073,11 +25058,11 @@
       </c>
       <c r="D106" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E106" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -25094,11 +25079,11 @@
       </c>
       <c r="D107" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E107" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -25115,11 +25100,11 @@
       </c>
       <c r="D108" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E108" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -25136,11 +25121,11 @@
       </c>
       <c r="D109" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E109" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -25157,11 +25142,11 @@
       </c>
       <c r="D110" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E110" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -25178,11 +25163,11 @@
       </c>
       <c r="D111" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E111" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -25199,11 +25184,11 @@
       </c>
       <c r="D112" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E112" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -25220,11 +25205,11 @@
       </c>
       <c r="D113" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E113" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -25241,11 +25226,11 @@
       </c>
       <c r="D114" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E114" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -25262,11 +25247,11 @@
       </c>
       <c r="D115" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E115" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -25283,11 +25268,11 @@
       </c>
       <c r="D116" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E116" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -25304,11 +25289,11 @@
       </c>
       <c r="D117" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E117" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -25325,11 +25310,11 @@
       </c>
       <c r="D118" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E118" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -25346,11 +25331,11 @@
       </c>
       <c r="D119" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E119" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -25367,11 +25352,11 @@
       </c>
       <c r="D120" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E120" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -25388,11 +25373,11 @@
       </c>
       <c r="D121" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E121" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -25409,11 +25394,11 @@
       </c>
       <c r="D122" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E122" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -25430,11 +25415,11 @@
       </c>
       <c r="D123" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E123" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -25451,11 +25436,11 @@
       </c>
       <c r="D124" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E124" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -25472,11 +25457,11 @@
       </c>
       <c r="D125" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E125" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -25493,11 +25478,11 @@
       </c>
       <c r="D126" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E126" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -25514,11 +25499,11 @@
       </c>
       <c r="D127" s="5">
         <f t="shared" si="8"/>
-        <v>8.0590277777777768</v>
+        <v>7.8194444444444429</v>
       </c>
       <c r="E127" s="10">
         <f t="shared" si="7"/>
-        <v>0.86346726190476186</v>
+        <v>0.83779761904761896</v>
       </c>
     </row>
   </sheetData>
@@ -25528,12 +25513,12 @@
     <mergeCell ref="B78:E78"/>
   </mergeCells>
   <conditionalFormatting sqref="F116">
-    <cfRule type="timePeriod" dxfId="10" priority="2" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="7" priority="2" timePeriod="today">
       <formula>FLOOR(F116,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:E127">
-    <cfRule type="timePeriod" dxfId="9" priority="1" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="6" priority="1" timePeriod="today">
       <formula>FLOOR(B1,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25547,8 +25532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CF9308-6F9B-4045-AEDD-F0743ADE84FF}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
@@ -25577,12 +25562,12 @@
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -26992,12 +26977,12 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="26" x14ac:dyDescent="0.2">
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -27423,7 +27408,7 @@
       <c r="A99">
         <v>21</v>
       </c>
-      <c r="B99" s="13">
+      <c r="B99" s="11">
         <f t="shared" si="7"/>
         <v>44547</v>
       </c>
@@ -27431,11 +27416,11 @@
         <f t="shared" si="8"/>
         <v>1.3809523809523812</v>
       </c>
-      <c r="D99" s="14">
+      <c r="D99" s="12">
         <f t="shared" si="10"/>
         <v>1.9166666666666661</v>
       </c>
-      <c r="E99" s="15">
+      <c r="E99" s="13">
         <f>D99/$C$79</f>
         <v>0.82142857142857129</v>
       </c>
@@ -28035,12 +28020,12 @@
     <mergeCell ref="B78:E78"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:E2">
-    <cfRule type="timePeriod" dxfId="8" priority="2" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="5" priority="2" timePeriod="today">
       <formula>FLOOR(B2,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B78:E127">
-    <cfRule type="timePeriod" dxfId="7" priority="1" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="4" priority="1" timePeriod="today">
       <formula>FLOOR(B78,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28054,8 +28039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260ACEC8-6D1A-CB4E-B288-FC5123DB54E7}">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A73" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
@@ -29460,12 +29445,12 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="26" x14ac:dyDescent="0.2">
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -29891,7 +29876,7 @@
       <c r="A99">
         <v>21</v>
       </c>
-      <c r="B99" s="13">
+      <c r="B99" s="11">
         <f t="shared" si="5"/>
         <v>44547</v>
       </c>
@@ -29899,11 +29884,11 @@
         <f t="shared" si="6"/>
         <v>1.3809523809523812</v>
       </c>
-      <c r="D99" s="14">
+      <c r="D99" s="12">
         <f t="shared" si="8"/>
         <v>1.8784722222222219</v>
       </c>
-      <c r="E99" s="15">
+      <c r="E99" s="13">
         <f>D99/$C$79</f>
         <v>0.80505952380952372</v>
       </c>
@@ -30506,12 +30491,12 @@
     <mergeCell ref="B78:E78"/>
   </mergeCells>
   <conditionalFormatting sqref="B78:E78 B79:C127 E79:E127">
-    <cfRule type="timePeriod" dxfId="6" priority="2" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="3" priority="2" timePeriod="today">
       <formula>FLOOR(B78,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D79:D127">
-    <cfRule type="timePeriod" dxfId="5" priority="1" timePeriod="today">
+    <cfRule type="timePeriod" dxfId="2" priority="1" timePeriod="today">
       <formula>FLOOR(D79,1)=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30525,9 +30510,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96421919-AD2A-D749-A669-506A039EBD4B}">
   <dimension ref="A1:F127"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G79" sqref="G79"/>
+    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -31931,12 +31916,12 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="26" x14ac:dyDescent="0.2">
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -32351,18 +32336,18 @@
       </c>
       <c r="D98" s="5">
         <f>D97-([1]Coralie!$C$61)</f>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E98" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>21</v>
       </c>
-      <c r="B99" s="13">
+      <c r="B99" s="11">
         <f t="shared" si="5"/>
         <v>44547</v>
       </c>
@@ -32370,13 +32355,13 @@
         <f t="shared" si="6"/>
         <v>1.3809523809523812</v>
       </c>
-      <c r="D99" s="14">
+      <c r="D99" s="12">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
-      </c>
-      <c r="E99" s="15">
+        <v>1.7013888888888886</v>
+      </c>
+      <c r="E99" s="13">
         <f>D99/$C$79</f>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -32393,11 +32378,11 @@
       </c>
       <c r="D100" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E100" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -32414,11 +32399,11 @@
       </c>
       <c r="D101" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E101" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -32435,11 +32420,11 @@
       </c>
       <c r="D102" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E102" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -32456,11 +32441,11 @@
       </c>
       <c r="D103" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E103" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -32477,11 +32462,11 @@
       </c>
       <c r="D104" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E104" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -32498,11 +32483,11 @@
       </c>
       <c r="D105" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E105" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -32519,11 +32504,11 @@
       </c>
       <c r="D106" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E106" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -32540,11 +32525,11 @@
       </c>
       <c r="D107" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E107" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -32561,11 +32546,11 @@
       </c>
       <c r="D108" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E108" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -32582,11 +32567,11 @@
       </c>
       <c r="D109" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E109" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -32603,11 +32588,11 @@
       </c>
       <c r="D110" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E110" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -32624,11 +32609,11 @@
       </c>
       <c r="D111" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E111" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -32645,11 +32630,11 @@
       </c>
       <c r="D112" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E112" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -32666,11 +32651,11 @@
       </c>
       <c r="D113" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E113" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -32687,11 +32672,11 @@
       </c>
       <c r="D114" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E114" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -32708,11 +32693,11 @@
       </c>
       <c r="D115" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E115" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -32729,11 +32714,11 @@
       </c>
       <c r="D116" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E116" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -32750,11 +32735,11 @@
       </c>
       <c r="D117" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E117" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -32771,11 +32756,11 @@
       </c>
       <c r="D118" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E118" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -32792,11 +32777,11 @@
       </c>
       <c r="D119" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E119" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -32813,11 +32798,11 @@
       </c>
       <c r="D120" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E120" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -32834,11 +32819,11 @@
       </c>
       <c r="D121" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E121" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -32855,11 +32840,11 @@
       </c>
       <c r="D122" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E122" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -32876,11 +32861,11 @@
       </c>
       <c r="D123" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E123" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -32897,11 +32882,11 @@
       </c>
       <c r="D124" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E124" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -32918,11 +32903,11 @@
       </c>
       <c r="D125" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E125" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -32939,11 +32924,11 @@
       </c>
       <c r="D126" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E126" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -32960,11 +32945,11 @@
       </c>
       <c r="D127" s="5">
         <f t="shared" si="8"/>
-        <v>1.7638888888888886</v>
+        <v>1.7013888888888886</v>
       </c>
       <c r="E127" s="10">
         <f t="shared" si="7"/>
-        <v>0.75595238095238093</v>
+        <v>0.72916666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -32989,8 +32974,8 @@
   <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H112" sqref="H112"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -34394,12 +34379,12 @@
       </c>
     </row>
     <row r="78" spans="1:5" ht="26" x14ac:dyDescent="0.2">
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
@@ -34813,19 +34798,19 @@
         <v>1.4285714285714288</v>
       </c>
       <c r="D98" s="5">
-        <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <f>D97-([1]Constantin!$C$24+[1]Constantin!$C$25+[1]Constantin!$C$26)</f>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E98" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>21</v>
       </c>
-      <c r="B99" s="13">
+      <c r="B99" s="11">
         <f t="shared" si="7"/>
         <v>44547</v>
       </c>
@@ -34835,11 +34820,11 @@
       </c>
       <c r="D99" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
-      </c>
-      <c r="E99" s="15">
+        <v>2.0729166666666661</v>
+      </c>
+      <c r="E99" s="13">
         <f>D99/$C$79</f>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
@@ -34856,11 +34841,11 @@
       </c>
       <c r="D100" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E100" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
@@ -34877,11 +34862,11 @@
       </c>
       <c r="D101" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E101" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
@@ -34898,11 +34883,11 @@
       </c>
       <c r="D102" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E102" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -34919,11 +34904,11 @@
       </c>
       <c r="D103" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E103" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -34940,11 +34925,11 @@
       </c>
       <c r="D104" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E104" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -34961,11 +34946,11 @@
       </c>
       <c r="D105" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E105" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -34982,11 +34967,11 @@
       </c>
       <c r="D106" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E106" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
@@ -35003,11 +34988,11 @@
       </c>
       <c r="D107" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E107" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -35024,11 +35009,11 @@
       </c>
       <c r="D108" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E108" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -35045,11 +35030,11 @@
       </c>
       <c r="D109" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E109" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -35066,11 +35051,11 @@
       </c>
       <c r="D110" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E110" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -35087,11 +35072,11 @@
       </c>
       <c r="D111" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E111" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -35108,11 +35093,11 @@
       </c>
       <c r="D112" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E112" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -35129,11 +35114,11 @@
       </c>
       <c r="D113" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E113" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -35150,11 +35135,11 @@
       </c>
       <c r="D114" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E114" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -35171,11 +35156,11 @@
       </c>
       <c r="D115" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E115" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -35192,11 +35177,11 @@
       </c>
       <c r="D116" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E116" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -35213,11 +35198,11 @@
       </c>
       <c r="D117" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E117" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -35234,11 +35219,11 @@
       </c>
       <c r="D118" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E118" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -35255,11 +35240,11 @@
       </c>
       <c r="D119" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E119" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -35276,11 +35261,11 @@
       </c>
       <c r="D120" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E120" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -35297,11 +35282,11 @@
       </c>
       <c r="D121" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E121" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -35318,11 +35303,11 @@
       </c>
       <c r="D122" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E122" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -35339,11 +35324,11 @@
       </c>
       <c r="D123" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E123" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -35360,11 +35345,11 @@
       </c>
       <c r="D124" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E124" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -35381,11 +35366,11 @@
       </c>
       <c r="D125" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E125" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -35402,11 +35387,11 @@
       </c>
       <c r="D126" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E126" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -35423,11 +35408,11 @@
       </c>
       <c r="D127" s="5">
         <f t="shared" si="11"/>
-        <v>2.2499999999999996</v>
+        <v>2.0729166666666661</v>
       </c>
       <c r="E127" s="10">
         <f t="shared" si="10"/>
-        <v>0.96428571428571419</v>
+        <v>0.88839285714285698</v>
       </c>
     </row>
   </sheetData>
